--- a/Testing_the_registration_Formе_HW.xlsx
+++ b/Testing_the_registration_Formе_HW.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="288">
   <si>
     <t>Name</t>
   </si>
@@ -342,28 +342,22 @@
     <t>Адрес</t>
   </si>
   <si>
+    <t>Требования к полю "Name"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Минимум 1, максимум 128 символов
+ 2.Можно вводить через тире, можно через точку
+ 3.Зависим от регистра
+ 4. Можно использовать пробелы и спецсимволы</t>
+  </si>
+  <si>
     <t>Чек-лист поля "Name"</t>
   </si>
   <si>
-    <t>Требования к полю "Name"</t>
-  </si>
-  <si>
-    <t>Минимум 1, максимум 128 символов
- Можно вводить через тире, можно через точку
- Зависим от регистра
- Можно использовать пробелы и спецсимволы</t>
-  </si>
-  <si>
-    <t>Проверка (Что нужно сделать?)</t>
-  </si>
-  <si>
-    <t>Пример/условие</t>
+    <t>Фактический результат</t>
   </si>
   <si>
     <t>Баг-Репорт</t>
-  </si>
-  <si>
-    <t>Field_name_1</t>
   </si>
   <si>
     <t>Валидация поле Name одну заглавную букву латиницей</t>
@@ -385,9 +379,6 @@
     <t>ID: Bug_Name_13</t>
   </si>
   <si>
-    <t>Field_name_2</t>
-  </si>
-  <si>
     <t>Валидация поле Name 128 букв латиницей, одна заглавная</t>
   </si>
   <si>
@@ -400,9 +391,6 @@
     <t>ID: Bug_Name_14</t>
   </si>
   <si>
-    <t>Field_name_3</t>
-  </si>
-  <si>
     <t>Валидация поля Name. Ввод 20 символов кирицей, первый символ заглавный</t>
   </si>
   <si>
@@ -418,9 +406,6 @@
     <t>ID: Bug_Name_15</t>
   </si>
   <si>
-    <t>Field_name_4</t>
-  </si>
-  <si>
     <t>Валидация поля Name. Ввод спецсимволов @!</t>
   </si>
   <si>
@@ -434,9 +419,6 @@
  Error: Не верно заполнено поле Name. Поле Name подсвечивается красной рамочкой</t>
   </si>
   <si>
-    <t>Field_name_5</t>
-  </si>
-  <si>
     <t>Валидация поля Name. Ввод чисел</t>
   </si>
   <si>
@@ -450,9 +432,6 @@
  Error: Не верно заполнено поле Name. Поле Name подсвечивается красной рамочкой</t>
   </si>
   <si>
-    <t>Field_name_6</t>
-  </si>
-  <si>
     <t>Валидация поля Name. Ввод корректного имени "-" и "."</t>
   </si>
   <si>
@@ -468,9 +447,6 @@
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: Mila-d.a Savitskaya</t>
   </si>
   <si>
-    <t>Field_name_7</t>
-  </si>
-  <si>
     <t>Валидация поля Name. Ввод корректного имени используя нижний регистр.</t>
   </si>
   <si>
@@ -483,9 +459,6 @@
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: milada Savitskaya</t>
   </si>
   <si>
-    <t>Field_name_8</t>
-  </si>
-  <si>
     <t>Валидация Name. Ввод пустого поля</t>
   </si>
   <si>
@@ -495,9 +468,6 @@
  Password : A123456!</t>
   </si>
   <si>
-    <t>Field_name_9</t>
-  </si>
-  <si>
     <t>Валидация Name. Ввод значений смешанного типа</t>
   </si>
   <si>
@@ -510,9 +480,6 @@
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: Mi1a.da/ Savitskaya</t>
   </si>
   <si>
-    <t>Field_name_10</t>
-  </si>
-  <si>
     <t>Валидация Name. Ввод html тега: &lt;b&gt;text&lt;/b&gt;</t>
   </si>
   <si>
@@ -525,9 +492,6 @@
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: &lt;b&gt;text&lt;/b&gt; Savitskaya</t>
   </si>
   <si>
-    <t>Field_name_11</t>
-  </si>
-  <si>
     <t>Валидация Name. Ввод больше допустимого значения</t>
   </si>
   <si>
@@ -537,9 +501,6 @@
  Password : A123456!</t>
   </si>
   <si>
-    <t>Field_name_12</t>
-  </si>
-  <si>
     <t>Валидация Surname. Пробелы</t>
   </si>
   <si>
@@ -549,9 +510,6 @@
  Password : A123456!</t>
   </si>
   <si>
-    <t>Field_name_13</t>
-  </si>
-  <si>
     <t>Валидация Surname. Ввод кирилицей и латиницей</t>
   </si>
   <si>
@@ -564,9 +522,6 @@
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: Милада Mila Savitskaya</t>
   </si>
   <si>
-    <t>Field_name_14</t>
-  </si>
-  <si>
     <t>Валидация Surname. Ввод ссылки</t>
   </si>
   <si>
@@ -576,9 +531,6 @@
  Password : A123456!</t>
   </si>
   <si>
-    <t>Field_name_15</t>
-  </si>
-  <si>
     <t>Валидация Surname. Ввод латиницей в верхнем регистре</t>
   </si>
   <si>
@@ -591,9 +543,6 @@
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение :Success! Hello: SAVITSKAYA Savitskaya</t>
   </si>
   <si>
-    <t>Field_name_16</t>
-  </si>
-  <si>
     <t>Валидация Surname. Ввод кирилицей в нижнем регистре</t>
   </si>
   <si>
@@ -606,7 +555,10 @@
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: милада Savitskaya</t>
   </si>
   <si>
-    <t>Чек-лист поля "Surname"</t>
+    <t xml:space="preserve">Google Chrome </t>
+  </si>
+  <si>
+    <t>Windows 10</t>
   </si>
   <si>
     <t>Требования к полю "Surname"</t>
@@ -617,7 +569,7 @@
  Зависим от регистра</t>
   </si>
   <si>
-    <t>Field_surname_1</t>
+    <t>Чек-лист поля "Surname"</t>
   </si>
   <si>
     <t>Валидация Surname. Ввод цифр.</t>
@@ -636,9 +588,6 @@
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: Milada 123456</t>
   </si>
   <si>
-    <t>Field_surname_2</t>
-  </si>
-  <si>
     <t>Валидация Surname. Ввод спецсимволов(! @ #)</t>
   </si>
   <si>
@@ -651,9 +600,6 @@
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: Milada @!#</t>
   </si>
   <si>
-    <t>Field_surname_3</t>
-  </si>
-  <si>
     <t>Валидация Surname. Минимальное значение</t>
   </si>
   <si>
@@ -663,9 +609,6 @@
  Password : A123456!</t>
   </si>
   <si>
-    <t>Field_surname_4</t>
-  </si>
-  <si>
     <t>Валидация Surname. Максимальное значение</t>
   </si>
   <si>
@@ -675,9 +618,6 @@
  Password : A123456!</t>
   </si>
   <si>
-    <t>Field_surname_5</t>
-  </si>
-  <si>
     <t>Валидация Surname. Пустое поле</t>
   </si>
   <si>
@@ -694,13 +634,7 @@
  Error: Error: All Fields are Required</t>
   </si>
   <si>
-    <t>Field_surname_6</t>
-  </si>
-  <si>
     <t>Пользователь не зарегистрирован. Внизу формы в голубом окне сообщение : Success, вы зарегистрированы!</t>
-  </si>
-  <si>
-    <t>Field_surname_7</t>
   </si>
   <si>
     <t>Name : Milada
@@ -716,9 +650,6 @@
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: Milada Савиckaya</t>
   </si>
   <si>
-    <t>Field_surname_8</t>
-  </si>
-  <si>
     <t>Валидация Surname. Ввод латиницей в нижнем регистре</t>
   </si>
   <si>
@@ -731,9 +662,6 @@
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: Milada savitskaya</t>
   </si>
   <si>
-    <t>Field_surname_9</t>
-  </si>
-  <si>
     <t>Name : Milada
  Surname: SAVITSKAYA
  email: cow007@mail.ru 
@@ -743,9 +671,6 @@
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: Milada SAVITSKAYA</t>
   </si>
   <si>
-    <t>Field_surname_10</t>
-  </si>
-  <si>
     <t>Валидация Surname. Ввод латиницей c "."</t>
   </si>
   <si>
@@ -758,9 +683,6 @@
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: Milada Savitskay.a</t>
   </si>
   <si>
-    <t>Field_surname_11</t>
-  </si>
-  <si>
     <t>Валидация Surname. Ввод латиницей c "/"</t>
   </si>
   <si>
@@ -773,9 +695,6 @@
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: Milada Savitskaya/</t>
   </si>
   <si>
-    <t>Field_surname_12</t>
-  </si>
-  <si>
     <t>Name : Milada
  Surname: http://itcareer.pythonanywhere.com/
  email: cow007@mail.ru 
@@ -785,9 +704,6 @@
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: Milada http://itcareer.pythonanywhere.com/</t>
   </si>
   <si>
-    <t>Field_surname_13</t>
-  </si>
-  <si>
     <t>Валидация Surname. Ввод значений смешанного типа</t>
   </si>
   <si>
@@ -800,9 +716,6 @@
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: Milada Savit2./kaya!</t>
   </si>
   <si>
-    <t>Field_surname_14</t>
-  </si>
-  <si>
     <t>Валидация Surname. Ввод html тега: &lt;b&gt;text&lt;/b&gt;</t>
   </si>
   <si>
@@ -815,9 +728,6 @@
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: Milada &lt;b&gt;text&lt;/b&gt;</t>
   </si>
   <si>
-    <t>Field_surname_15</t>
-  </si>
-  <si>
     <t>Валидация Surname. Ввод больше допустимого значения</t>
   </si>
   <si>
@@ -830,20 +740,20 @@
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: Milada Xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx</t>
   </si>
   <si>
+    <t>Требования к полю "Email"</t>
+  </si>
+  <si>
+    <t>1. Минимум 16 символов, максимум 128
+2. Нельзя пробел (если поставить пробел, то форма ругается на пробел)
+3. @' и '.' (разделитель доменной зоны) обязательны
+4. Нет регистрозависимости. Всё что внесешь должно сохраниться в базу с Lowercase (маленький регистр)
+5. Поддерживает все виды почты (gmail, yandex, mail и др.)</t>
+  </si>
+  <si>
     <t>Чек-лист поля "Email"</t>
   </si>
   <si>
-    <t>Требования к полю "Email"</t>
-  </si>
-  <si>
-    <t>Минимум 16 символов, максимум 128
- Нельзя пробел (если поставить пробел, то форма ругается на пробел)
- @' и '.' (разделитель доменной зоны) обязательны
- Нет регистрозависимости. Всё что внесешь должно сохраниться в базу с Lowercase (маленький регистр)
- Поддерживает все виды почты (gmail, yandex, mail и др.)</t>
-  </si>
-  <si>
-    <t>Field_email_1</t>
+    <t>Фактический  результат</t>
   </si>
   <si>
     <t>Валидация E-mail. Ввод с двумя "@".</t>
@@ -862,9 +772,6 @@
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: Milada A</t>
   </si>
   <si>
-    <t>Field_email_2</t>
-  </si>
-  <si>
     <t>Валидация E-mail. Ввод с одной буквой, числом и знаком в домене.</t>
   </si>
   <si>
@@ -874,9 +781,6 @@
  Password : A123456!</t>
   </si>
   <si>
-    <t>Field_email_3</t>
-  </si>
-  <si>
     <t>Валидация E-mail. Ввод без домена.</t>
   </si>
   <si>
@@ -886,9 +790,6 @@
  Password : A123456!</t>
   </si>
   <si>
-    <t>Field_email_4</t>
-  </si>
-  <si>
     <t>Валидация E-mail. Ввод без имени.</t>
   </si>
   <si>
@@ -898,9 +799,6 @@
  Password : A123456!</t>
   </si>
   <si>
-    <t>Field_email_5</t>
-  </si>
-  <si>
     <t>Валидация E-mail. Ввод только "@"</t>
   </si>
   <si>
@@ -910,9 +808,6 @@
  Password : A123456!</t>
   </si>
   <si>
-    <t>Field_email_6</t>
-  </si>
-  <si>
     <t>Валидация E-mail. Ввод только "."</t>
   </si>
   <si>
@@ -922,9 +817,6 @@
  Password : A123456!</t>
   </si>
   <si>
-    <t>Field_email_7</t>
-  </si>
-  <si>
     <t>Валидация E-mail. Ввод с кириллицей в домене</t>
   </si>
   <si>
@@ -934,9 +826,6 @@
  Password : A123456!</t>
   </si>
   <si>
-    <t>Field_email_8</t>
-  </si>
-  <si>
     <t>Валидация E-mail. Ввод с кириллицей в имени</t>
   </si>
   <si>
@@ -946,9 +835,6 @@
  Password : A123456!</t>
   </si>
   <si>
-    <t>Field_email_9</t>
-  </si>
-  <si>
     <t>Валидация E-mail. Ввод пустого поля</t>
   </si>
   <si>
@@ -962,9 +848,6 @@
  Error: Не заполнено поле Email. Поле Email подсвечивается красной рамочкой</t>
   </si>
   <si>
-    <t>Field_email_10</t>
-  </si>
-  <si>
     <t>Валидация E-mail. Ввод имени с пробелом</t>
   </si>
   <si>
@@ -974,9 +857,6 @@
  Password : A123456!</t>
   </si>
   <si>
-    <t>Field_email_11</t>
-  </si>
-  <si>
     <t>Валидация E-mail. Ввод корректного адреса с минимальным значением</t>
   </si>
   <si>
@@ -986,9 +866,6 @@
  Password : A123456!</t>
   </si>
   <si>
-    <t>Field_email_12</t>
-  </si>
-  <si>
     <t>Валидация E-mail. Ввод корректного адреса с максимальным значением</t>
   </si>
   <si>
@@ -998,9 +875,6 @@
  Password : A123456!</t>
   </si>
   <si>
-    <t>Field_email_13</t>
-  </si>
-  <si>
     <t>Валидация E-mail. Ввод ссылки.</t>
   </si>
   <si>
@@ -1017,9 +891,6 @@
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение :Success! Hello: Milada A</t>
   </si>
   <si>
-    <t>Field_email_14</t>
-  </si>
-  <si>
     <t>Валидация E-mail. Пробелы в начале адреса и в конце.</t>
   </si>
   <si>
@@ -1029,9 +900,6 @@
  Password : A123456!</t>
   </si>
   <si>
-    <t>Field_email_15</t>
-  </si>
-  <si>
     <t>Валидация E-mail. Ввод Ввод html тега</t>
   </si>
   <si>
@@ -1050,6 +918,12 @@
     <t>Минимум 8 символов, максимум 32 символа;
  Минимум 1 большая буква, 1 цифра и один из спец символов @ # !;
  Show password - не нужен.</t>
+  </si>
+  <si>
+    <t>Проверка (Что нужно сделать?)</t>
+  </si>
+  <si>
+    <t>Пример/условие</t>
   </si>
   <si>
     <t>Field_password_1</t>
@@ -1239,7 +1113,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="30">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1288,6 +1162,58 @@
     </font>
     <font>
       <b/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FF202124"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF1155CC"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF1155CC"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="&quot;Times New Roman&quot;"/>
@@ -1315,12 +1241,8 @@
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
+      <b/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1328,8 +1250,26 @@
       <name val="Roboto"/>
     </font>
     <font>
+      <b/>
+      <u/>
       <sz val="12.0"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF1155CC"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF1155CC"/>
+      <name val="&quot;Times New Roman&quot;"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1339,7 +1279,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1378,14 +1318,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA2C4C9"/>
-        <bgColor rgb="FFA2C4C9"/>
+        <fgColor rgb="FFEAD1DC"/>
+        <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FFC9DAF8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA2C4C9"/>
+        <bgColor rgb="FFA2C4C9"/>
       </patternFill>
     </fill>
   </fills>
@@ -1462,7 +1414,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="119">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1500,19 +1452,19 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1536,154 +1488,264 @@
     <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="9" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="6" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="9" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="9" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="20" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="10" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="10" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="9" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="8" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="8" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="8" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="9" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="9" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="7" fillId="5" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="6" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf borderId="7" fillId="9" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="8" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="7" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="8" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="7" fillId="8" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="7" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="8" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="8" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="8" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1925,6 +1987,7 @@
     <col customWidth="1" min="3" max="3" width="16.88"/>
     <col customWidth="1" min="4" max="4" width="38.13"/>
     <col customWidth="1" min="5" max="5" width="56.5"/>
+    <col customWidth="1" min="6" max="6" width="8.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2508,10 +2571,10 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
   </mergeCells>
@@ -2543,9 +2606,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="3.75"/>
     <col customWidth="1" min="2" max="2" width="30.38"/>
-    <col customWidth="1" min="3" max="3" width="26.25"/>
-    <col customWidth="1" min="4" max="4" width="16.63"/>
+    <col customWidth="1" min="3" max="3" width="26.88"/>
+    <col customWidth="1" min="4" max="4" width="27.88"/>
+    <col customWidth="1" min="5" max="5" width="32.25"/>
+    <col customWidth="1" min="6" max="6" width="7.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2556,36 +2622,36 @@
       <c r="C1" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="31"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2">
       <c r="A2" s="27" t="s">
         <v>94</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="31"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3">
       <c r="A3" s="27" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4">
       <c r="A4" s="27" t="s">
@@ -2595,416 +2661,476 @@
       <c r="C4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5">
       <c r="A5" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
     </row>
     <row r="6">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="36" t="s">
         <v>100</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="38" t="s">
         <v>101</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="F8" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="46" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="42">
+        <v>1.0</v>
+      </c>
+      <c r="B9" s="43" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="47" t="s">
+      <c r="C9" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="D9" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="E9" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="F9" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="51" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="42">
+        <v>2.0</v>
+      </c>
+      <c r="B10" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="C10" s="43" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="47" t="s">
+      <c r="D10" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="48" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="42">
+        <v>3.0</v>
+      </c>
+      <c r="B11" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C11" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D11" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="52" t="s">
+      <c r="E11" s="43" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="47" t="s">
+      <c r="F11" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="48" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="42">
+        <v>4.0</v>
+      </c>
+      <c r="B12" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C12" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="48" t="s">
+      <c r="D12" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="E12" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="46"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="42">
+        <v>5.0</v>
+      </c>
+      <c r="B13" s="43" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="47" t="s">
+      <c r="C13" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="D13" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="E13" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="46"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="42">
+        <v>6.0</v>
+      </c>
+      <c r="B14" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="C14" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="54"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="47" t="s">
+      <c r="D14" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="E14" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="F14" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="46"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="42">
+        <v>7.0</v>
+      </c>
+      <c r="B15" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="C15" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="E13" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="54"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="47" t="s">
+      <c r="D15" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="F15" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="46"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="42">
+        <v>8.0</v>
+      </c>
+      <c r="B16" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C16" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D16" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="46"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="B17" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="48" t="s">
+      <c r="C17" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="54"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="47" t="s">
+      <c r="D17" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="F17" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="46"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="42">
+        <v>10.0</v>
+      </c>
+      <c r="B18" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C18" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="48" t="s">
+      <c r="D18" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="G15" s="54"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="47" t="s">
+      <c r="F18" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="46"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="42">
+        <v>11.0</v>
+      </c>
+      <c r="B19" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="C19" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="D19" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="46"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="42">
+        <v>12.0</v>
+      </c>
+      <c r="B20" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="54"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="47" t="s">
+      <c r="C20" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="D20" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="46"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="42">
+        <v>13.0</v>
+      </c>
+      <c r="B21" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C21" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="48" t="s">
+      <c r="D21" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="G17" s="54"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="47" t="s">
+      <c r="F21" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="46"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="42">
+        <v>14.0</v>
+      </c>
+      <c r="B22" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="C22" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="D22" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="46"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="42">
+        <v>15.0</v>
+      </c>
+      <c r="B23" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="48" t="s">
+      <c r="C23" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="G18" s="54"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="47" t="s">
+      <c r="D23" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="F23" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="46"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="42">
+        <v>16.0</v>
+      </c>
+      <c r="B24" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C24" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="54"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="47" t="s">
+      <c r="D24" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="54"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="G21" s="54"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="B22" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="54"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="G23" s="54"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24" s="54"/>
+      <c r="F24" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="46"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C4"/>
@@ -3025,442 +3151,596 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="4.0"/>
+    <col customWidth="1" min="2" max="2" width="27.63"/>
+    <col customWidth="1" min="3" max="3" width="31.5"/>
+    <col customWidth="1" min="4" max="4" width="41.88"/>
+    <col customWidth="1" min="5" max="5" width="26.5"/>
+    <col customWidth="1" min="6" max="6" width="7.88"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="50" t="s">
         <v>92</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="56"/>
+      <c r="C1" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="50" t="s">
         <v>94</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="56"/>
+      <c r="C2" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
     </row>
     <row r="3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="50" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="56"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="50" t="s">
         <v>98</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="56"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
     </row>
     <row r="5">
-      <c r="A5" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="56"/>
+      <c r="A5" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
     </row>
     <row r="6">
-      <c r="A6" s="37" t="s">
-        <v>170</v>
+      <c r="A6" s="57" t="s">
+        <v>155</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="56"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
     </row>
     <row r="7">
-      <c r="A7" s="40" t="s">
-        <v>171</v>
+      <c r="A7" s="58" t="s">
+        <v>156</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="56"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="44" t="s">
+      <c r="B8" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="57" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="63">
+        <v>1.0</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="66"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="63">
+        <v>2.0</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="63">
+        <v>3.0</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="66"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="63">
+        <v>4.0</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="63">
+        <v>5.0</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="63">
+        <v>6.0</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="E14" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="66"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="63">
+        <v>7.0</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="D15" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="E15" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="E9" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="48" t="s">
+      <c r="F15" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="66"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="63">
+        <v>8.0</v>
+      </c>
+      <c r="B16" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="G9" s="60"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="58" t="s">
+      <c r="C16" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="D16" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="F16" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="66"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="63">
+        <v>9.0</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="D10" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="E10" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="48" t="s">
+      <c r="D17" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="G10" s="60"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="58" t="s">
+      <c r="F17" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="66"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="63">
+        <v>10.0</v>
+      </c>
+      <c r="B18" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="C18" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="D18" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="58" t="s">
+      <c r="F18" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="66"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="63">
+        <v>11.0</v>
+      </c>
+      <c r="B19" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="C19" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="D19" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="60"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="58" t="s">
+      <c r="F19" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="66"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="63">
+        <v>12.0</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="D20" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="F20" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="66"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="63">
+        <v>13.0</v>
+      </c>
+      <c r="B21" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="C21" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="E13" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="51" t="s">
+      <c r="D21" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="G13" s="60"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="58" t="s">
+      <c r="F21" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="66"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="63">
+        <v>14.0</v>
+      </c>
+      <c r="B22" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="B14" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" s="48" t="s">
+      <c r="C22" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="E14" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="G14" s="60"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="58" t="s">
+      <c r="D22" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" s="64" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="48" t="s">
+      <c r="F22" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="66"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="63">
+        <v>15.0</v>
+      </c>
+      <c r="B23" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="C23" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="E15" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="48" t="s">
+      <c r="D23" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="G15" s="60"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="E16" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="G16" s="60"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="E17" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="G17" s="60"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="E18" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="G18" s="60"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>210</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="E19" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="60"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="B20" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="E20" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="G20" s="60"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="58" t="s">
-        <v>216</v>
-      </c>
-      <c r="B21" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="E21" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="G21" s="60"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="58" t="s">
-        <v>220</v>
-      </c>
-      <c r="B22" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="E22" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="G22" s="60"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="B23" s="63" t="s">
-        <v>225</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="E23" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="G23" s="60"/>
+      <c r="F23" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="66"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
     </row>
     <row r="24">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="67"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="67"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="67"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="67"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C4"/>
@@ -3478,478 +3758,697 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="3.75"/>
+    <col customWidth="1" min="2" max="2" width="26.5"/>
+    <col customWidth="1" min="3" max="3" width="22.5"/>
+    <col customWidth="1" min="4" max="4" width="35.13"/>
+    <col customWidth="1" min="5" max="5" width="33.38"/>
+    <col customWidth="1" min="6" max="6" width="7.5"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="72" t="s">
         <v>92</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="C1" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
     </row>
     <row r="2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="72" t="s">
         <v>94</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="C2" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
     </row>
     <row r="3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="72" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
     </row>
     <row r="4">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="72" t="s">
         <v>98</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
     </row>
     <row r="5">
-      <c r="A5" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="A5" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
     </row>
     <row r="6">
-      <c r="A6" s="37" t="s">
-        <v>229</v>
+      <c r="A6" s="77" t="s">
+        <v>199</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
     </row>
     <row r="7">
-      <c r="A7" s="40" t="s">
-        <v>230</v>
+      <c r="A7" s="78" t="s">
+        <v>200</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
     </row>
     <row r="8">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="44" t="s">
+      <c r="B8" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="56"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
     </row>
     <row r="9">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="82">
+        <v>1.0</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="F9" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="85"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="82">
+        <v>2.0</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="85"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="82">
+        <v>3.0</v>
+      </c>
+      <c r="B11" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="83" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="85"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="82">
+        <v>4.0</v>
+      </c>
+      <c r="B12" s="83" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="85"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="82">
+        <v>5.0</v>
+      </c>
+      <c r="B13" s="83" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="F13" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="85"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="82">
+        <v>6.0</v>
+      </c>
+      <c r="B14" s="83" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="83" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="F14" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="85"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="82">
+        <v>7.0</v>
+      </c>
+      <c r="B15" s="86" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="F15" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="85"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="82">
+        <v>8.0</v>
+      </c>
+      <c r="B16" s="86" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="83" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="83" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="F16" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="85"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="82">
+        <v>9.0</v>
+      </c>
+      <c r="B17" s="86" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" s="83" t="s">
+        <v>221</v>
+      </c>
+      <c r="D17" s="83" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="F17" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="85"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="82">
+        <v>10.0</v>
+      </c>
+      <c r="B18" s="86" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="83" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" s="83" t="s">
+        <v>222</v>
+      </c>
+      <c r="E18" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="F18" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="85"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="82">
+        <v>11.0</v>
+      </c>
+      <c r="B19" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="85"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="82">
+        <v>12.0</v>
+      </c>
+      <c r="B20" s="86" t="s">
+        <v>227</v>
+      </c>
+      <c r="C20" s="83" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="F20" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="85"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="82">
+        <v>13.0</v>
+      </c>
+      <c r="B21" s="86" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" s="83" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="83" t="s">
         <v>231</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="E21" s="83" t="s">
         <v>232</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="F21" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="85"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="82">
+        <v>14.0</v>
+      </c>
+      <c r="B22" s="86" t="s">
         <v>233</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="C22" s="83" t="s">
         <v>234</v>
       </c>
-      <c r="E9" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="48" t="s">
+      <c r="D22" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="85"/>
+      <c r="F22" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="85"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="82">
+        <v>15.0</v>
+      </c>
+      <c r="B23" s="86" t="s">
         <v>235</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="31"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="47" t="s">
+      <c r="C23" s="83" t="s">
         <v>236</v>
       </c>
-      <c r="B10" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="31"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>240</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="31"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="47" t="s">
-        <v>242</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="31"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="31"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="47" t="s">
-        <v>248</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="47" t="s">
-        <v>251</v>
-      </c>
-      <c r="B15" s="66" t="s">
-        <v>252</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="B16" s="66" t="s">
-        <v>255</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="31"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="B17" s="66" t="s">
-        <v>258</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>260</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="31"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="47" t="s">
-        <v>261</v>
-      </c>
-      <c r="B18" s="66" t="s">
-        <v>262</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>260</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="31"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="B19" s="66" t="s">
-        <v>265</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="31"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="47" t="s">
-        <v>267</v>
-      </c>
-      <c r="B20" s="66" t="s">
-        <v>268</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="31"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="47" t="s">
-        <v>270</v>
-      </c>
-      <c r="B21" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="48" t="s">
-        <v>274</v>
-      </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="31"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="47" t="s">
-        <v>275</v>
-      </c>
-      <c r="B22" s="66" t="s">
-        <v>276</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>277</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="60"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="31"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="B23" s="66" t="s">
-        <v>279</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>280</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="31"/>
+      <c r="D23" s="83" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="85"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
     </row>
     <row r="24">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="88"/>
     </row>
     <row r="25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="88"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="89"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="48"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="89"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="89"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="C3:G3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C4"/>
@@ -3969,454 +4468,454 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="90" t="s">
         <v>92</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
     </row>
     <row r="2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="90" t="s">
         <v>94</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="90" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
     </row>
     <row r="4">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="90" t="s">
         <v>98</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
     </row>
     <row r="5">
-      <c r="A5" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="A5" s="95" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="96"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
     </row>
     <row r="6">
-      <c r="A6" s="70" t="s">
-        <v>282</v>
+      <c r="A6" s="99" t="s">
+        <v>238</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
     </row>
     <row r="7">
-      <c r="A7" s="71" t="s">
-        <v>283</v>
+      <c r="A7" s="100" t="s">
+        <v>239</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
     </row>
     <row r="8">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="44" t="s">
+      <c r="B8" s="105" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="105" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="31"/>
+      <c r="H8" s="88"/>
     </row>
     <row r="9">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="107" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="108" t="s">
+        <v>245</v>
+      </c>
+      <c r="E9" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="110" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" s="111"/>
+      <c r="H9" s="88"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="107" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" s="108" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="108" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" s="108" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="110" t="s">
+        <v>246</v>
+      </c>
+      <c r="G10" s="111"/>
+      <c r="H10" s="88"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="107" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" s="108" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="108" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="108" t="s">
+        <v>246</v>
+      </c>
+      <c r="E11" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="113"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="88"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="107" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" s="108" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="108" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="108" t="s">
+        <v>246</v>
+      </c>
+      <c r="E12" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="113"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="88"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="107" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" s="108" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="108" t="s">
+        <v>258</v>
+      </c>
+      <c r="D13" s="108" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="110" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="111"/>
+      <c r="H13" s="88"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="107" t="s">
+        <v>259</v>
+      </c>
+      <c r="B14" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" s="108" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="108" t="s">
+        <v>245</v>
+      </c>
+      <c r="E14" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="110" t="s">
+        <v>246</v>
+      </c>
+      <c r="G14" s="111"/>
+      <c r="H14" s="88"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="107" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" s="108" t="s">
+        <v>262</v>
+      </c>
+      <c r="C15" s="108" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" s="108" t="s">
+        <v>245</v>
+      </c>
+      <c r="E15" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="110" t="s">
+        <v>246</v>
+      </c>
+      <c r="G15" s="111"/>
+      <c r="H15" s="88"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="107" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" s="108" t="s">
+        <v>265</v>
+      </c>
+      <c r="C16" s="108" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" s="108" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="110" t="s">
+        <v>246</v>
+      </c>
+      <c r="G16" s="111"/>
+      <c r="H16" s="88"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="107" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" s="108" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" s="108" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" s="108" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="110" t="s">
+        <v>246</v>
+      </c>
+      <c r="G17" s="111"/>
+      <c r="H17" s="88"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="107" t="s">
+        <v>270</v>
+      </c>
+      <c r="B18" s="108" t="s">
+        <v>271</v>
+      </c>
+      <c r="C18" s="108" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="108" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="110" t="s">
+        <v>246</v>
+      </c>
+      <c r="G18" s="111"/>
+      <c r="H18" s="88"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="107" t="s">
+        <v>273</v>
+      </c>
+      <c r="B19" s="108" t="s">
+        <v>274</v>
+      </c>
+      <c r="C19" s="108" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" s="108" t="s">
+        <v>245</v>
+      </c>
+      <c r="E19" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="110" t="s">
+        <v>246</v>
+      </c>
+      <c r="G19" s="111"/>
+      <c r="H19" s="88"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="107" t="s">
+        <v>276</v>
+      </c>
+      <c r="B20" s="114" t="s">
+        <v>277</v>
+      </c>
+      <c r="C20" s="108" t="s">
+        <v>278</v>
+      </c>
+      <c r="D20" s="108" t="s">
+        <v>245</v>
+      </c>
+      <c r="E20" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="110" t="s">
+        <v>246</v>
+      </c>
+      <c r="G20" s="111"/>
+      <c r="H20" s="88"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="107" t="s">
+        <v>279</v>
+      </c>
+      <c r="B21" s="114" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" s="108" t="s">
+        <v>281</v>
+      </c>
+      <c r="D21" s="108" t="s">
+        <v>245</v>
+      </c>
+      <c r="E21" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="110" t="s">
+        <v>246</v>
+      </c>
+      <c r="G21" s="111"/>
+      <c r="H21" s="88"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="107" t="s">
+        <v>282</v>
+      </c>
+      <c r="B22" s="114" t="s">
+        <v>283</v>
+      </c>
+      <c r="C22" s="108" t="s">
         <v>284</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="D22" s="108" t="s">
+        <v>245</v>
+      </c>
+      <c r="E22" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="110" t="s">
+        <v>246</v>
+      </c>
+      <c r="G22" s="111"/>
+      <c r="H22" s="88"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="107" t="s">
         <v>285</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="B23" s="114" t="s">
         <v>286</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="C23" s="108" t="s">
         <v>287</v>
       </c>
-      <c r="E9" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="G9" s="76"/>
-      <c r="H9" s="31"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="47" t="s">
-        <v>289</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>290</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>291</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="E10" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="G10" s="76"/>
-      <c r="H10" s="31"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>293</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>288</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="60"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="31"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="47" t="s">
-        <v>295</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>296</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>297</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>288</v>
-      </c>
-      <c r="E12" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="60"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="31"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="47" t="s">
-        <v>298</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="E13" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="G13" s="76"/>
-      <c r="H13" s="31"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="47" t="s">
-        <v>301</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="E14" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="G14" s="76"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="47" t="s">
-        <v>303</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>304</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>305</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="E15" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="G15" s="76"/>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="47" t="s">
-        <v>306</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>307</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>308</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="E16" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="G16" s="76"/>
-      <c r="H16" s="31"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="47" t="s">
-        <v>309</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>310</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>311</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="E17" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="G17" s="76"/>
-      <c r="H17" s="31"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="47" t="s">
-        <v>312</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>313</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>314</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="E18" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="G18" s="76"/>
-      <c r="H18" s="31"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="47" t="s">
-        <v>315</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>317</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="E19" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="G19" s="76"/>
-      <c r="H19" s="31"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="47" t="s">
-        <v>318</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>319</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>320</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="E20" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="G20" s="76"/>
-      <c r="H20" s="31"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="B21" s="55" t="s">
-        <v>322</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="E21" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="G21" s="76"/>
-      <c r="H21" s="31"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="47" t="s">
-        <v>324</v>
-      </c>
-      <c r="B22" s="55" t="s">
-        <v>325</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>326</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="E22" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="G22" s="76"/>
-      <c r="H22" s="31"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="B23" s="55" t="s">
-        <v>328</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>329</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="E23" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="G23" s="76"/>
-      <c r="H23" s="31"/>
+      <c r="D23" s="108" t="s">
+        <v>245</v>
+      </c>
+      <c r="E23" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="110" t="s">
+        <v>246</v>
+      </c>
+      <c r="G23" s="111"/>
+      <c r="H23" s="88"/>
     </row>
     <row r="24">
-      <c r="A24" s="31"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4446,7 +4945,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="78"/>
+      <c r="A1" s="118"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Testing_the_registration_Formе_HW.xlsx
+++ b/Testing_the_registration_Formе_HW.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="269">
   <si>
     <t>Name</t>
   </si>
@@ -324,13 +324,13 @@
     <t>Браузер</t>
   </si>
   <si>
-    <t>Google Chrome Версия 91.0.4472.164</t>
+    <t xml:space="preserve">Google Chrome </t>
   </si>
   <si>
     <t>ОС</t>
   </si>
   <si>
-    <t>Windows 7 Максимальная 64-разрядная система</t>
+    <t>Windows 10</t>
   </si>
   <si>
     <t>Доступ в интернет</t>
@@ -553,12 +553,6 @@
   </si>
   <si>
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: милада Savitskaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google Chrome </t>
-  </si>
-  <si>
-    <t>Windows 10</t>
   </si>
   <si>
     <t>Требования к полю "Surname"</t>
@@ -909,24 +903,15 @@
  Password : A123456!</t>
   </si>
   <si>
+    <t>Требования к полю "Password"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.Минимум 8 символов, максимум 32 символа;
+ 2.Минимум 1 большая буква, 1 цифра и один из спец символов @ # !;
+ 3.Show password - не нужен.</t>
+  </si>
+  <si>
     <t>Чек-лист поля "Password"</t>
-  </si>
-  <si>
-    <t>Требования к полю "Password"</t>
-  </si>
-  <si>
-    <t>Минимум 8 символов, максимум 32 символа;
- Минимум 1 большая буква, 1 цифра и один из спец символов @ # !;
- Show password - не нужен.</t>
-  </si>
-  <si>
-    <t>Проверка (Что нужно сделать?)</t>
-  </si>
-  <si>
-    <t>Пример/условие</t>
-  </si>
-  <si>
-    <t>Field_password_1</t>
   </si>
   <si>
     <t>Валидация Password. Ввод цифр.</t>
@@ -944,9 +929,6 @@
     <t>Пользователь зарегистрирован</t>
   </si>
   <si>
-    <t>Field_password_2</t>
-  </si>
-  <si>
     <t>Валидация Password. Ввод спецсимволов(! @ #)</t>
   </si>
   <si>
@@ -956,9 +938,6 @@
  Password : ##@@!!!!!!!</t>
   </si>
   <si>
-    <t>Field_password_3</t>
-  </si>
-  <si>
     <t>Валидация Password. Корректный пароль.Минимальное значение</t>
   </si>
   <si>
@@ -968,9 +947,6 @@
  Password : #A123456</t>
   </si>
   <si>
-    <t>Field_password_4</t>
-  </si>
-  <si>
     <t>Валидация Password.Корректный пароль. Максимальное значение</t>
   </si>
   <si>
@@ -980,9 +956,6 @@
  Password : #A12345678901234561214521478523</t>
   </si>
   <si>
-    <t>Field_password_5</t>
-  </si>
-  <si>
     <t>Валидация Password.Корректный пароль. 33 символа</t>
   </si>
   <si>
@@ -992,13 +965,7 @@
  Password : #A123456789012345612145214785233</t>
   </si>
   <si>
-    <t>Field_password_6</t>
-  </si>
-  <si>
     <t>Валидация Password. Корректный пароль, вконце два пробела</t>
-  </si>
-  <si>
-    <t>Field_password_7</t>
   </si>
   <si>
     <t>Валидация Password. Ввод кирилицей и латиницей</t>
@@ -1010,9 +977,6 @@
  Password : #1Aпроверка</t>
   </si>
   <si>
-    <t>Field_password_8</t>
-  </si>
-  <si>
     <t>Валидация Password. Ввод латиницей в нижнем регистре</t>
   </si>
   <si>
@@ -1022,9 +986,6 @@
  Password : #1KGGJBKK</t>
   </si>
   <si>
-    <t>Field_password_9</t>
-  </si>
-  <si>
     <t>Валидация Password. Ввод латиницей в верхнем регистре</t>
   </si>
   <si>
@@ -1034,9 +995,6 @@
  Password : kdhkjdfhgkdfhg</t>
   </si>
   <si>
-    <t>Field_password_10</t>
-  </si>
-  <si>
     <t>Валидация Password. Ввод латиницей c "."</t>
   </si>
   <si>
@@ -1046,9 +1004,6 @@
  Password : kdhkjdfhgkdfh.g</t>
   </si>
   <si>
-    <t>Field_password_11</t>
-  </si>
-  <si>
     <t>Валидация Password. Ввод латиницей c "/"</t>
   </si>
   <si>
@@ -1058,9 +1013,6 @@
  Password : kdhkjdfhgkdfh/g</t>
   </si>
   <si>
-    <t>Field_password_12</t>
-  </si>
-  <si>
     <t>Валидация Password. Ввод ссылки</t>
   </si>
   <si>
@@ -1070,9 +1022,6 @@
  Password : http://itcareer.pythonanywhere.com/</t>
   </si>
   <si>
-    <t>Field_password_13</t>
-  </si>
-  <si>
     <t>Валидация Password. Ввод значений смешанного типа</t>
   </si>
   <si>
@@ -1082,9 +1031,6 @@
  Password : !@#Aa&lt;&amp;ыва</t>
   </si>
   <si>
-    <t>Field_password_14</t>
-  </si>
-  <si>
     <t>Валидация Password. Ввод html тега</t>
   </si>
   <si>
@@ -1092,9 +1038,6 @@
  Surname: A
  email: cow007@mail.ru
  Password : &lt;b&gt;text&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>Field_password_15</t>
   </si>
   <si>
     <t>Валидация Password. Ввод меньше допустимого кол-ва символов</t>
@@ -1113,17 +1056,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="27">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
       <b/>
@@ -1132,6 +1070,11 @@
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font/>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Times New Roman&quot;"/>
+    </font>
     <font>
       <u/>
       <sz val="12.0"/>
@@ -1161,13 +1104,18 @@
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b/>
       <sz val="12.0"/>
       <color rgb="FF202124"/>
       <name val="Times New Roman"/>
@@ -1178,79 +1126,12 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b/>
       <u/>
       <sz val="12.0"/>
       <color rgb="FF1155CC"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF1155CC"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Times New Roman&quot;"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color rgb="FF202124"/>
-      <name val="&quot;Times New Roman&quot;"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Times New Roman&quot;"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF1155CC"/>
-      <name val="&quot;Times New Roman&quot;"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
       <u/>
       <sz val="12.0"/>
       <color rgb="FF1155CC"/>
@@ -1262,15 +1143,60 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="12.0"/>
       <color rgb="FF1155CC"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FF202124"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF1155CC"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF1155CC"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
@@ -1279,7 +1205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1334,14 +1260,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA2C4C9"/>
-        <bgColor rgb="FFA2C4C9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border/>
     <border>
       <left style="thin">
@@ -1405,347 +1325,263 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="92">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="7" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="9" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="5" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="5" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="6" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="9" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="9" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="7" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="9" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="20" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="10" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="10" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="9" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="9" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="9" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="6" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="7" fillId="9" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2068,7 +1904,7 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3"/>
@@ -2081,482 +1917,518 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12">
-      <c r="A12" s="20">
+      <c r="A12" s="21">
         <v>1.0</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="21" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="24" t="s">
+      <c r="F12" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13">
-      <c r="A13" s="20">
+      <c r="A13" s="21">
         <v>2.0</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="24" t="s">
+      <c r="F13" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14">
-      <c r="A14" s="20">
+      <c r="A14" s="21">
         <v>3.0</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="21" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="24" t="s">
+      <c r="F14" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="16"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15">
-      <c r="A15" s="20">
+      <c r="A15" s="21">
         <v>4.0</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="21" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="16"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16">
-      <c r="A16" s="20">
+      <c r="A16" s="21">
         <v>5.0</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="21" t="s">
+      <c r="C16" s="23"/>
+      <c r="D16" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="16"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17">
-      <c r="A17" s="20">
+      <c r="A17" s="21">
         <v>6.0</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="21" t="s">
+      <c r="C17" s="23"/>
+      <c r="D17" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="24" t="s">
+      <c r="F17" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="16"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18">
-      <c r="A18" s="20">
+      <c r="A18" s="21">
         <v>7.0</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="21" t="s">
+      <c r="C18" s="23"/>
+      <c r="D18" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="24" t="s">
+      <c r="F18" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="16"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19">
-      <c r="A19" s="20">
+      <c r="A19" s="21">
         <v>8.0</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="21" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="24" t="s">
+      <c r="F19" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="16"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20">
-      <c r="A20" s="20">
+      <c r="A20" s="21">
         <v>9.0</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="21" t="s">
+      <c r="C20" s="23"/>
+      <c r="D20" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="24" t="s">
+      <c r="F20" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="16"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21">
-      <c r="A21" s="20">
+      <c r="A21" s="21">
         <v>10.0</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="21" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="16"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22">
-      <c r="A22" s="20">
+      <c r="A22" s="21">
         <v>11.0</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="16"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23">
-      <c r="A23" s="20">
+      <c r="A23" s="21">
         <v>12.0</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="21" t="s">
+      <c r="C23" s="23"/>
+      <c r="D23" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="24" t="s">
+      <c r="F23" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="16"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24">
-      <c r="A24" s="20">
+      <c r="A24" s="21">
         <v>13.0</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="16"/>
+      <c r="F24" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25">
-      <c r="A25" s="20">
+      <c r="A25" s="21">
         <v>14.0</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="24" t="s">
+      <c r="F25" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="H25" s="16"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26">
-      <c r="A26" s="20">
+      <c r="A26" s="21">
         <v>15.0</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="16"/>
+      <c r="F26" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27">
-      <c r="A27" s="20">
+      <c r="A27" s="21">
         <v>16.0</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="16"/>
+      <c r="F27" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="23"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28">
-      <c r="A28" s="20">
+      <c r="A28" s="21">
         <v>17.0</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="21" t="s">
+      <c r="C28" s="23"/>
+      <c r="D28" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="25" t="s">
+      <c r="E28" s="23"/>
+      <c r="F28" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="16"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29">
-      <c r="A29" s="20">
+      <c r="A29" s="21">
         <v>18.0</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="21" t="s">
+      <c r="C29" s="23"/>
+      <c r="D29" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="24" t="s">
+      <c r="F29" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="H29" s="16"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30">
-      <c r="A30" s="20">
+      <c r="A30" s="21">
         <v>19.0</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="21" t="s">
+      <c r="C30" s="23"/>
+      <c r="D30" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F30" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="24" t="s">
+      <c r="F30" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="H30" s="16"/>
+      <c r="H30" s="17"/>
     </row>
     <row r="31">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -2567,9 +2439,9 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A8:G8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A2:B2"/>
@@ -2615,522 +2487,522 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>92</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="31" t="s">
         <v>93</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="30" t="s">
         <v>94</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="30" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="30" t="s">
         <v>98</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="42" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="42">
+      <c r="A9" s="43">
         <v>1.0</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="45" t="s">
+      <c r="F9" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="46" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="42">
+      <c r="A10" s="43">
         <v>2.0</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="45" t="s">
+      <c r="F10" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="46" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="42">
+      <c r="A11" s="43">
         <v>3.0</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="45" t="s">
+      <c r="F11" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="46" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="42">
+      <c r="A12" s="43">
         <v>4.0</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="46"/>
+      <c r="F12" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="47"/>
     </row>
     <row r="13">
-      <c r="A13" s="42">
+      <c r="A13" s="43">
         <v>5.0</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="46"/>
+      <c r="F13" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="47"/>
     </row>
     <row r="14">
-      <c r="A14" s="42">
+      <c r="A14" s="43">
         <v>6.0</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="F14" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="46"/>
+      <c r="F14" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="47"/>
     </row>
     <row r="15">
-      <c r="A15" s="42">
+      <c r="A15" s="43">
         <v>7.0</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="46"/>
+      <c r="F15" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="47"/>
     </row>
     <row r="16">
-      <c r="A16" s="42">
+      <c r="A16" s="43">
         <v>8.0</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="46"/>
+      <c r="F16" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="47"/>
     </row>
     <row r="17">
-      <c r="A17" s="42">
+      <c r="A17" s="43">
         <v>9.0</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="46"/>
+      <c r="F17" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="47"/>
     </row>
     <row r="18">
-      <c r="A18" s="42">
+      <c r="A18" s="43">
         <v>10.0</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="46"/>
+      <c r="F18" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="47"/>
     </row>
     <row r="19">
-      <c r="A19" s="42">
+      <c r="A19" s="43">
         <v>11.0</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="46"/>
+      <c r="F19" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="47"/>
     </row>
     <row r="20">
-      <c r="A20" s="42">
+      <c r="A20" s="43">
         <v>12.0</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="46"/>
+      <c r="F20" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="47"/>
     </row>
     <row r="21">
-      <c r="A21" s="42">
+      <c r="A21" s="43">
         <v>13.0</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="46"/>
+      <c r="F21" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="47"/>
     </row>
     <row r="22">
-      <c r="A22" s="42">
+      <c r="A22" s="43">
         <v>14.0</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="46"/>
+      <c r="F22" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="47"/>
     </row>
     <row r="23">
-      <c r="A23" s="42">
+      <c r="A23" s="43">
         <v>15.0</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="F23" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="46"/>
+      <c r="F23" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="47"/>
     </row>
     <row r="24">
-      <c r="A24" s="42">
+      <c r="A24" s="43">
         <v>16.0</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="46"/>
+      <c r="F24" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="47"/>
     </row>
     <row r="25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
     </row>
     <row r="26">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
     </row>
     <row r="27">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
     </row>
     <row r="28">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
     </row>
     <row r="29">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
     </row>
     <row r="30">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C4"/>
@@ -3161,586 +3033,586 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>92</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="54" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="56" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="57" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="64">
+        <v>1.0</v>
+      </c>
+      <c r="B9" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="58" t="s">
+      <c r="C9" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="B9" s="64" t="s">
+      <c r="D9" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="E9" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="F9" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="67"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="64">
+        <v>2.0</v>
+      </c>
+      <c r="B10" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="C10" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="F9" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="63">
-        <v>2.0</v>
-      </c>
-      <c r="B10" s="64" t="s">
+      <c r="D10" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="F10" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="64">
+        <v>3.0</v>
+      </c>
+      <c r="B11" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" s="64" t="s">
+      <c r="C11" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="F10" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="63">
-        <v>3.0</v>
-      </c>
-      <c r="B11" s="64" t="s">
+      <c r="D11" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="67"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="64">
+        <v>4.0</v>
+      </c>
+      <c r="B12" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C12" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D12" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E12" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F12" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="63">
-        <v>4.0</v>
-      </c>
-      <c r="B12" s="64" t="s">
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="64">
+        <v>5.0</v>
+      </c>
+      <c r="B13" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C13" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="63">
-        <v>5.0</v>
-      </c>
-      <c r="B13" s="64" t="s">
+      <c r="D13" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="E13" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="F13" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="67"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="64">
+        <v>6.0</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="E13" s="69" t="s">
+      <c r="E14" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="64">
+        <v>7.0</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="F13" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="63">
-        <v>6.0</v>
-      </c>
-      <c r="B14" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="64" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14" s="64" t="s">
+      <c r="D15" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="E14" s="69" t="s">
-        <v>171</v>
-      </c>
-      <c r="F14" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="63">
-        <v>7.0</v>
-      </c>
-      <c r="B15" s="64" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="64" t="s">
+      <c r="E15" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="F15" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="67"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="64">
+        <v>8.0</v>
+      </c>
+      <c r="B16" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="C16" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="F15" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="63">
-        <v>8.0</v>
-      </c>
-      <c r="B16" s="64" t="s">
+      <c r="D16" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="F16" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="64">
+        <v>9.0</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="E16" s="64" t="s">
+      <c r="D17" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="F16" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="63">
-        <v>9.0</v>
-      </c>
-      <c r="B17" s="64" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="64" t="s">
+      <c r="F17" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="64">
+        <v>10.0</v>
+      </c>
+      <c r="B18" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="D17" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="E17" s="64" t="s">
+      <c r="C18" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="F17" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="66"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="63">
-        <v>10.0</v>
-      </c>
-      <c r="B18" s="64" t="s">
+      <c r="D18" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="F18" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="67"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="64">
+        <v>11.0</v>
+      </c>
+      <c r="B19" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="D18" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="E18" s="64" t="s">
+      <c r="C19" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="F18" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="63">
-        <v>11.0</v>
-      </c>
-      <c r="B19" s="64" t="s">
+      <c r="D19" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="E19" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="F19" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="67"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="64">
+        <v>12.0</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="E19" s="64" t="s">
+      <c r="D20" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="F19" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="63">
-        <v>12.0</v>
-      </c>
-      <c r="B20" s="70" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="64" t="s">
+      <c r="F20" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="67"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="64">
+        <v>13.0</v>
+      </c>
+      <c r="B21" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="D20" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="E20" s="64" t="s">
+      <c r="C21" s="65" t="s">
         <v>188</v>
       </c>
-      <c r="F20" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="66"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="63">
-        <v>13.0</v>
-      </c>
-      <c r="B21" s="70" t="s">
+      <c r="D21" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="F21" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="67"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="64">
+        <v>14.0</v>
+      </c>
+      <c r="B22" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="D21" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="E21" s="64" t="s">
+      <c r="C22" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="F21" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="66"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="63">
-        <v>14.0</v>
-      </c>
-      <c r="B22" s="70" t="s">
+      <c r="D22" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="F22" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="67"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="64">
+        <v>15.0</v>
+      </c>
+      <c r="B23" s="71" t="s">
         <v>193</v>
       </c>
-      <c r="D22" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="E22" s="64" t="s">
+      <c r="C23" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="F22" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="66"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="63">
-        <v>15.0</v>
-      </c>
-      <c r="B23" s="70" t="s">
+      <c r="D23" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="C23" s="64" t="s">
-        <v>196</v>
-      </c>
-      <c r="D23" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="E23" s="64" t="s">
-        <v>197</v>
-      </c>
-      <c r="F23" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="66"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
+      <c r="F23" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="67"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
     </row>
     <row r="24">
-      <c r="A24" s="71"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
     </row>
     <row r="25">
-      <c r="A25" s="67"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
     </row>
     <row r="26">
-      <c r="A26" s="67"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
     </row>
     <row r="27">
-      <c r="A27" s="67"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
     </row>
     <row r="28">
-      <c r="A28" s="67"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A7:G7"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C4"/>
@@ -3768,686 +3640,686 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>92</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="C1" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
     </row>
     <row r="2">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>94</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
     </row>
     <row r="3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="73" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
     </row>
     <row r="4">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>98</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
     </row>
     <row r="5">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="78" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="79" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="77" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="78" t="s">
+      <c r="F8" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="75"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="B9" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="81" t="s">
+      <c r="C9" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="F8" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="82">
-        <v>1.0</v>
-      </c>
-      <c r="B9" s="83" t="s">
+      <c r="D9" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="E9" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="F9" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="47"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="43">
+        <v>2.0</v>
+      </c>
+      <c r="B10" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="C10" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="F9" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="82">
-        <v>2.0</v>
-      </c>
-      <c r="B10" s="83" t="s">
+      <c r="D10" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="47"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="43">
+        <v>3.0</v>
+      </c>
+      <c r="B11" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C11" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="D10" s="83" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" s="83" t="s">
-        <v>205</v>
-      </c>
-      <c r="F10" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="85"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="82">
-        <v>3.0</v>
-      </c>
-      <c r="B11" s="83" t="s">
+      <c r="D11" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="47"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="43">
+        <v>4.0</v>
+      </c>
+      <c r="B12" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C12" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="83" t="s">
-        <v>204</v>
-      </c>
-      <c r="E11" s="83" t="s">
-        <v>205</v>
-      </c>
-      <c r="F11" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="85"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="82">
-        <v>4.0</v>
-      </c>
-      <c r="B12" s="83" t="s">
+      <c r="D12" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="47"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="43">
+        <v>5.0</v>
+      </c>
+      <c r="B13" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C13" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="D12" s="83" t="s">
-        <v>204</v>
-      </c>
-      <c r="E12" s="83" t="s">
-        <v>205</v>
-      </c>
-      <c r="F12" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="85"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="82">
-        <v>5.0</v>
-      </c>
-      <c r="B13" s="83" t="s">
+      <c r="D13" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="47"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="43">
+        <v>6.0</v>
+      </c>
+      <c r="B14" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C14" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="D13" s="83" t="s">
-        <v>204</v>
-      </c>
-      <c r="E13" s="83" t="s">
-        <v>205</v>
-      </c>
-      <c r="F13" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="85"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="82">
-        <v>6.0</v>
-      </c>
-      <c r="B14" s="83" t="s">
+      <c r="D14" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="47"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="43">
+        <v>7.0</v>
+      </c>
+      <c r="B15" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C15" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="D14" s="83" t="s">
-        <v>204</v>
-      </c>
-      <c r="E14" s="83" t="s">
-        <v>205</v>
-      </c>
-      <c r="F14" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="85"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="82">
-        <v>7.0</v>
-      </c>
-      <c r="B15" s="86" t="s">
+      <c r="D15" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="47"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="43">
+        <v>8.0</v>
+      </c>
+      <c r="B16" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C16" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="D15" s="83" t="s">
-        <v>204</v>
-      </c>
-      <c r="E15" s="83" t="s">
-        <v>205</v>
-      </c>
-      <c r="F15" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="85"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="82">
-        <v>8.0</v>
-      </c>
-      <c r="B16" s="86" t="s">
+      <c r="D16" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="47"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="43">
+        <v>9.0</v>
+      </c>
+      <c r="B17" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C17" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="D16" s="83" t="s">
-        <v>204</v>
-      </c>
-      <c r="E16" s="83" t="s">
-        <v>205</v>
-      </c>
-      <c r="F16" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="85"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="82">
-        <v>9.0</v>
-      </c>
-      <c r="B17" s="86" t="s">
+      <c r="D17" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="E17" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="43">
+        <v>10.0</v>
+      </c>
+      <c r="B18" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="C18" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="E17" s="83" t="s">
-        <v>205</v>
-      </c>
-      <c r="F17" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="85"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="82">
-        <v>10.0</v>
-      </c>
-      <c r="B18" s="86" t="s">
+      <c r="D18" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="47"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="43">
+        <v>11.0</v>
+      </c>
+      <c r="B19" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="83" t="s">
+      <c r="C19" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="D18" s="83" t="s">
-        <v>222</v>
-      </c>
-      <c r="E18" s="83" t="s">
-        <v>205</v>
-      </c>
-      <c r="F18" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="85"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="82">
-        <v>11.0</v>
-      </c>
-      <c r="B19" s="86" t="s">
+      <c r="D19" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="47"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="43">
+        <v>12.0</v>
+      </c>
+      <c r="B20" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C20" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="83" t="s">
-        <v>170</v>
-      </c>
-      <c r="E19" s="83" t="s">
-        <v>205</v>
-      </c>
-      <c r="F19" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="85"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="82">
-        <v>12.0</v>
-      </c>
-      <c r="B20" s="86" t="s">
+      <c r="D20" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="47"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="43">
+        <v>13.0</v>
+      </c>
+      <c r="B21" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C21" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="D20" s="83" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" s="83" t="s">
-        <v>205</v>
-      </c>
-      <c r="F20" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="85"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="82">
-        <v>13.0</v>
-      </c>
-      <c r="B21" s="86" t="s">
+      <c r="D21" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="C21" s="83" t="s">
+      <c r="E21" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="D21" s="83" t="s">
+      <c r="F21" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="47"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="43">
+        <v>14.0</v>
+      </c>
+      <c r="B22" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="E21" s="83" t="s">
+      <c r="C22" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="F21" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="85"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="82">
-        <v>14.0</v>
-      </c>
-      <c r="B22" s="86" t="s">
+      <c r="D22" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="47"/>
+      <c r="F22" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="47"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="43">
+        <v>15.0</v>
+      </c>
+      <c r="B23" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="C22" s="83" t="s">
+      <c r="C23" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="D22" s="83" t="s">
+      <c r="D23" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="85"/>
-      <c r="F22" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="85"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="82">
-        <v>15.0</v>
-      </c>
-      <c r="B23" s="86" t="s">
-        <v>235</v>
-      </c>
-      <c r="C23" s="83" t="s">
-        <v>236</v>
-      </c>
-      <c r="D23" s="83" t="s">
-        <v>231</v>
-      </c>
-      <c r="E23" s="83" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="85"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
+      <c r="F23" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="47"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
     </row>
     <row r="24">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="88"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="81"/>
     </row>
     <row r="25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="88"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="81"/>
     </row>
     <row r="26">
-      <c r="A26" s="89"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
     </row>
     <row r="27">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
     </row>
     <row r="28">
-      <c r="A28" s="48"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
+      <c r="A28" s="82"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
     </row>
     <row r="29">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
+      <c r="A29" s="82"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
     </row>
     <row r="30">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
+      <c r="A30" s="82"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
     </row>
     <row r="31">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
+      <c r="A31" s="82"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
     </row>
     <row r="32">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
+      <c r="A32" s="82"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
     </row>
     <row r="33">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
+      <c r="A33" s="82"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
     </row>
     <row r="34">
-      <c r="A34" s="89"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
     </row>
     <row r="35">
-      <c r="A35" s="89"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:G2"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <hyperlinks>
@@ -4466,466 +4338,506 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="3.38"/>
+    <col customWidth="1" min="2" max="2" width="19.0"/>
+    <col customWidth="1" min="3" max="3" width="21.38"/>
+    <col customWidth="1" min="4" max="4" width="36.0"/>
+    <col customWidth="1" min="5" max="5" width="29.5"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="30" t="s">
         <v>92</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="81"/>
     </row>
     <row r="2">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="30" t="s">
         <v>94</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="30" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="81"/>
     </row>
     <row r="4">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="30" t="s">
         <v>98</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="81"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="87" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="81"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="88" t="s">
         <v>237</v>
       </c>
-      <c r="D5" s="96"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="99" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="81"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="81"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="B9" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="100" t="s">
+      <c r="C9" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="104" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="105" t="s">
+      <c r="D9" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="C8" s="105" t="s">
+      <c r="E9" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="D8" s="105" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="105" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="105" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="106" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="88"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="107" t="s">
+      <c r="F9" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="47"/>
+      <c r="H9" s="81"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="43">
+        <v>2.0</v>
+      </c>
+      <c r="B10" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="C10" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="D10" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="47"/>
+      <c r="H10" s="81"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="43">
+        <v>3.0</v>
+      </c>
+      <c r="B11" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="D9" s="108" t="s">
+      <c r="C11" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="E9" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="110" t="s">
+      <c r="D11" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="47"/>
+      <c r="H11" s="81"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="43">
+        <v>4.0</v>
+      </c>
+      <c r="B12" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="G9" s="111"/>
-      <c r="H9" s="88"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="107" t="s">
+      <c r="C12" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="B10" s="108" t="s">
+      <c r="D12" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" s="47"/>
+      <c r="F12" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="47"/>
+      <c r="H12" s="81"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="43">
+        <v>5.0</v>
+      </c>
+      <c r="B13" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="C10" s="108" t="s">
+      <c r="C13" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="D10" s="108" t="s">
+      <c r="D13" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="47"/>
+      <c r="H13" s="81"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="43">
+        <v>6.0</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="E10" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="110" t="s">
-        <v>246</v>
-      </c>
-      <c r="G10" s="111"/>
-      <c r="H10" s="88"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="107" t="s">
-        <v>250</v>
-      </c>
-      <c r="B11" s="108" t="s">
+      <c r="D14" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="47"/>
+      <c r="H14" s="81"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="43">
+        <v>7.0</v>
+      </c>
+      <c r="B15" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C15" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="D11" s="108" t="s">
-        <v>246</v>
-      </c>
-      <c r="E11" s="112" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="113"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="88"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="107" t="s">
+      <c r="D15" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="47"/>
+      <c r="H15" s="81"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="43">
+        <v>8.0</v>
+      </c>
+      <c r="B16" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="C16" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="D16" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="47"/>
+      <c r="H16" s="81"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="43">
+        <v>9.0</v>
+      </c>
+      <c r="B17" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="D12" s="108" t="s">
-        <v>246</v>
-      </c>
-      <c r="E12" s="112" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="113"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="88"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="107" t="s">
+      <c r="C17" s="44" t="s">
         <v>256</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="D17" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="81"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="43">
+        <v>10.0</v>
+      </c>
+      <c r="B18" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C18" s="44" t="s">
         <v>258</v>
       </c>
-      <c r="D13" s="108" t="s">
-        <v>245</v>
-      </c>
-      <c r="E13" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="110" t="s">
-        <v>246</v>
-      </c>
-      <c r="G13" s="111"/>
-      <c r="H13" s="88"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="107" t="s">
+      <c r="D18" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="47"/>
+      <c r="H18" s="81"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="43">
+        <v>11.0</v>
+      </c>
+      <c r="B19" s="44" t="s">
         <v>259</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="C19" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="C14" s="108" t="s">
-        <v>252</v>
-      </c>
-      <c r="D14" s="108" t="s">
-        <v>245</v>
-      </c>
-      <c r="E14" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="110" t="s">
-        <v>246</v>
-      </c>
-      <c r="G14" s="111"/>
-      <c r="H14" s="88"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="107" t="s">
+      <c r="D19" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="47"/>
+      <c r="H19" s="81"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="43">
+        <v>12.0</v>
+      </c>
+      <c r="B20" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="108" t="s">
+      <c r="C20" s="44" t="s">
         <v>262</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="D20" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="47"/>
+      <c r="H20" s="81"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="43">
+        <v>13.0</v>
+      </c>
+      <c r="B21" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="D15" s="108" t="s">
-        <v>245</v>
-      </c>
-      <c r="E15" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>246</v>
-      </c>
-      <c r="G15" s="111"/>
-      <c r="H15" s="88"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="107" t="s">
+      <c r="C21" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="B16" s="108" t="s">
+      <c r="D21" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="47"/>
+      <c r="H21" s="81"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="43">
+        <v>14.0</v>
+      </c>
+      <c r="B22" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="C16" s="108" t="s">
+      <c r="C22" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="D16" s="108" t="s">
-        <v>245</v>
-      </c>
-      <c r="E16" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="110" t="s">
-        <v>246</v>
-      </c>
-      <c r="G16" s="111"/>
-      <c r="H16" s="88"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="107" t="s">
+      <c r="D22" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="47"/>
+      <c r="H22" s="81"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="43">
+        <v>15.0</v>
+      </c>
+      <c r="B23" s="48" t="s">
         <v>267</v>
       </c>
-      <c r="B17" s="108" t="s">
+      <c r="C23" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="C17" s="108" t="s">
-        <v>269</v>
-      </c>
-      <c r="D17" s="108" t="s">
-        <v>245</v>
-      </c>
-      <c r="E17" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="110" t="s">
-        <v>246</v>
-      </c>
-      <c r="G17" s="111"/>
-      <c r="H17" s="88"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="107" t="s">
-        <v>270</v>
-      </c>
-      <c r="B18" s="108" t="s">
-        <v>271</v>
-      </c>
-      <c r="C18" s="108" t="s">
-        <v>272</v>
-      </c>
-      <c r="D18" s="108" t="s">
-        <v>245</v>
-      </c>
-      <c r="E18" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="110" t="s">
-        <v>246</v>
-      </c>
-      <c r="G18" s="111"/>
-      <c r="H18" s="88"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="107" t="s">
-        <v>273</v>
-      </c>
-      <c r="B19" s="108" t="s">
-        <v>274</v>
-      </c>
-      <c r="C19" s="108" t="s">
-        <v>275</v>
-      </c>
-      <c r="D19" s="108" t="s">
-        <v>245</v>
-      </c>
-      <c r="E19" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="110" t="s">
-        <v>246</v>
-      </c>
-      <c r="G19" s="111"/>
-      <c r="H19" s="88"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="107" t="s">
-        <v>276</v>
-      </c>
-      <c r="B20" s="114" t="s">
-        <v>277</v>
-      </c>
-      <c r="C20" s="108" t="s">
-        <v>278</v>
-      </c>
-      <c r="D20" s="108" t="s">
-        <v>245</v>
-      </c>
-      <c r="E20" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="110" t="s">
-        <v>246</v>
-      </c>
-      <c r="G20" s="111"/>
-      <c r="H20" s="88"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="107" t="s">
-        <v>279</v>
-      </c>
-      <c r="B21" s="114" t="s">
-        <v>280</v>
-      </c>
-      <c r="C21" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="D21" s="108" t="s">
-        <v>245</v>
-      </c>
-      <c r="E21" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="110" t="s">
-        <v>246</v>
-      </c>
-      <c r="G21" s="111"/>
-      <c r="H21" s="88"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="107" t="s">
-        <v>282</v>
-      </c>
-      <c r="B22" s="114" t="s">
-        <v>283</v>
-      </c>
-      <c r="C22" s="108" t="s">
-        <v>284</v>
-      </c>
-      <c r="D22" s="108" t="s">
-        <v>245</v>
-      </c>
-      <c r="E22" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="110" t="s">
-        <v>246</v>
-      </c>
-      <c r="G22" s="111"/>
-      <c r="H22" s="88"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="107" t="s">
-        <v>285</v>
-      </c>
-      <c r="B23" s="114" t="s">
-        <v>286</v>
-      </c>
-      <c r="C23" s="108" t="s">
-        <v>287</v>
-      </c>
-      <c r="D23" s="108" t="s">
-        <v>245</v>
-      </c>
-      <c r="E23" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="110" t="s">
-        <v>246</v>
-      </c>
-      <c r="G23" s="111"/>
-      <c r="H23" s="88"/>
+      <c r="D23" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="47"/>
+      <c r="H23" s="81"/>
     </row>
     <row r="24">
-      <c r="A24" s="88"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="81"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C4"/>
@@ -4945,7 +4857,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="118"/>
+      <c r="A1" s="91"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Testing_the_registration_Formе_HW.xlsx
+++ b/Testing_the_registration_Formе_HW.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="338">
   <si>
     <t>Name</t>
   </si>
@@ -119,7 +119,7 @@
  Название поля Email (пропущен "-")</t>
   </si>
   <si>
-    <t>ID: Bug_Form_2 ID: Bug_Form_3</t>
+    <t>Bug_1 ID: Bug_1</t>
   </si>
   <si>
     <t>Расположение надписи "Submit" (отцентровка)</t>
@@ -219,9 +219,9 @@
   </si>
   <si>
     <t>Name: 
- Surmame: Savitskaya
- Email: cow007@mail.ru
- Password: 123456a!</t>
+ Surmame: Boyarenko
+ Email: evaprigoghaeva@gmail.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Внизу формы в красной форме сообщение : Error: Не все поля заполнены
@@ -235,10 +235,10 @@
     <t>Заполнить корректно форму,кроме поля Surname. поле Surname оставить пустым</t>
   </si>
   <si>
-    <t>Name: Mila
+    <t>Name: Eva
  Surmame: 
- Email: cow007@mail.ru
- Password: 123456A!</t>
+ Email: evaprigoghaeva@gmail.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Пользователь зарегистрирован. Внизу формы в голубой форме сообщение : Success, вы зарегистрированы!</t>
@@ -253,10 +253,10 @@
     <t>Заполнить корректно форму,кроме поля E-mail. поле E-mail оставить пустым</t>
   </si>
   <si>
-    <t>Name: Mila
- Surmame: Savitskaya
+    <t>Name: Eva
+ Surmame: Boyarenko
  Email: 
- Password: 123456A!</t>
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Внизу формы в красной форме сообщение : "Error: Не заполнено поле Email !"
@@ -269,10 +269,10 @@
     <t>Заполнить корректно форму,кроме поля Password. поле password оставить пустым</t>
   </si>
   <si>
-    <t>Name: Eva
+    <t xml:space="preserve">Name: Eva
  Surmame: Boyarenko
- Email: cow007@mail.ru
- Password:</t>
+ Email: evaprigoghaeva@gmail.com
+ Password: </t>
   </si>
   <si>
     <t>Внизу формы в красной форме сообщение : "Error: Не заполнено поле Password !"
@@ -354,10 +354,10 @@
     <t>Валидация поле Name одну заглавную букву латиницей</t>
   </si>
   <si>
-    <t>Name : M
- Surname: Savitskaya
- email: cow007@mail.ru
- Password : A123456!</t>
+    <t>Name: E
+ Surmame: Boyarenko
+ Email: evaprigoghaeva@gmail.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Пользователь зарегистрирован.</t>
@@ -373,22 +373,16 @@
     <t>Валидация поле Name 128 букв латиницей, одна заглавная</t>
   </si>
   <si>
-    <t>Name : M
- Surname: Savitskaya
- email: cow007@mail.ru 
- Password : A123456!</t>
-  </si>
-  <si>
     <t>ID: Bug_Name_14</t>
   </si>
   <si>
     <t>Валидация поля Name. Ввод 20 символов кирицей, первый символ заглавный</t>
   </si>
   <si>
-    <t>Name : Maaaaaaaaaaaaaaaaaaa
- Surname: Savitskaya
- email: cow007@mail.ru 
- Password : A123456!</t>
+    <t>Name: Evaaaaaaaaaaaaaaaaaa
+ Surmame: Boyarenko
+ Email: evaprigoghaeva@gmail.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: Maaaaaaaaaaaaaaaaaaa Savitskaya</t>
@@ -397,13 +391,13 @@
     <t>ID: Bug_Name_15</t>
   </si>
   <si>
-    <t>Валидация поля Name. Ввод спецсимволов @!</t>
-  </si>
-  <si>
-    <t>Name : @!
- Surname: Savitskaya
- email: cow007@mail.ru 
- Password : A123456!</t>
+    <t>Валидация поля Name. Ввод спецсимволов *!</t>
+  </si>
+  <si>
+    <t>Name: *!
+ Surmame: Boyarenko
+ Email: evaprigoghaeva@gmail.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Пользователь не зарегистрирован Внизу формы сообщение в красной области : 
@@ -413,10 +407,10 @@
     <t>Валидация поля Name. Ввод чисел</t>
   </si>
   <si>
-    <t>Name : 123
- Surname: Savitskaya
- email: cow007@mail.ru 
- Password : A123456!</t>
+    <t>Name: 1234567
+ Surmame: Boyarenko
+ Email: evaprigoghaeva@gmail.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Пользователь не зарегистрирован. Внизу формы сообщение в красной области : 
@@ -426,10 +420,10 @@
     <t>Валидация поля Name. Ввод корректного имени "-" и "."</t>
   </si>
   <si>
-    <t>Name : Mila-d.a
- Surname: Savitskaya
- email: cow007@mail.ru 
- Password : A123456!</t>
+    <t>Name: Eva-.
+ Surmame: Boyarenko
+ Email: evaprigoghaeva@gmail.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Пользователь не зарегистрирован. Внизу формы в голубой форме сообщение : Success, вы зарегистрированы!</t>
@@ -441,10 +435,10 @@
     <t>Валидация поля Name. Ввод корректного имени используя нижний регистр.</t>
   </si>
   <si>
-    <t>Name : milada
- Surname: Savitskaya
- email: cow007@mail.ru 
- Password : A123456!</t>
+    <t>Name: eva
+ Surmame: Boyarenko
+ Email: evaprigoghaeva@gmail.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: milada Savitskaya</t>
@@ -453,19 +447,13 @@
     <t>Валидация Name. Ввод пустого поля</t>
   </si>
   <si>
-    <t>Name : 
- Surname: Savitskaya
- email: cow007@mail.ru 
- Password : A123456!</t>
-  </si>
-  <si>
     <t>Валидация Name. Ввод значений смешанного типа</t>
   </si>
   <si>
-    <t>Name : Mi1a.da/
- Surname: Savitskaya
- email: cow007@mail.ru 
- Password : A123456!</t>
+    <t>Name: Eva.////
+ Surmame: Boyarenko
+ Email: evaprigoghaeva@gmail.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: Mi1a.da/ Savitskaya</t>
@@ -475,39 +463,39 @@
   </si>
   <si>
     <t>Name : &lt;b&gt;text&lt;/b&gt;
- Surname: Savitskaya
- email: cow007@mail.ru 
- Password : A123456!</t>
+ Surmame: Boyarenko
+ Email: evaprigoghaeva@gmail.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: &lt;b&gt;text&lt;/b&gt; Savitskaya</t>
   </si>
   <si>
-    <t>Валидация Name. Ввод больше допустимого значения</t>
-  </si>
-  <si>
-    <t>Name : Ssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssss
- Surname: Savitskaya
- email: cow007@mail.ru 
- Password : A123456!</t>
-  </si>
-  <si>
-    <t>Валидация Surname. Пробелы</t>
-  </si>
-  <si>
-    <t>Name :
- Surname: Savitskaya
- email: cow007@mail.ru 
- Password : A123456!</t>
+    <t>Валидация Name. ввести 129 символов</t>
+  </si>
+  <si>
+    <t>Name: Evаааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааааа
+ Surmame: Boyarenko
+ Email: evaprigoghaeva@gmail.com
+ Password: 1234567B!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Валидация Surname. Ввести в поле Name только Пробелы </t>
+  </si>
+  <si>
+    <t>Name:    
+ Surmame: Boyarenko
+ Email: evaprigoghaeva@gmail.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Валидация Surname. Ввод кирилицей и латиницей</t>
   </si>
   <si>
-    <t>Name : Милада Mila
- Surname: Savitskaya
- email: cow007@mail.ru 
- Password : A123456!</t>
+    <t>Name: EvaЕва
+ Surmame: Boyarenko
+ Email: evaprigoghaeva@gmail.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: Милада Mila Savitskaya</t>
@@ -516,31 +504,49 @@
     <t>Валидация Surname. Ввод ссылки</t>
   </si>
   <si>
-    <t>Name : http://itcareer.pythonanywhere.com/
- Surname: Savitskaya
- email: cow007@mail.ru 
- Password : A123456!</t>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Name: Eva
+ Surmame: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://docs.google.com/spreadsheets/d/1m8FkwmQa4Um2ZrYV5lTHJtwXy2t48X-gcrDesndNwoM/edit#gid=20308804</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+ Email: evaprigoghaeva@gmail.com
+ Password: 1234567B!</t>
+    </r>
   </si>
   <si>
     <t>Валидация Surname. Ввод латиницей в верхнем регистре</t>
   </si>
   <si>
-    <t>Name : SAVITSKAYA
- Surname: Savitskaya
- email: cow007@mail.ru 
- Password : A123456!</t>
+    <t>Name: EVA
+ Surmame: Boyarenko
+ Email: evaprigoghaeva@gmail.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение :Success! Hello: SAVITSKAYA Savitskaya</t>
   </si>
   <si>
     <t>Валидация Surname. Ввод кирилицей в нижнем регистре</t>
-  </si>
-  <si>
-    <t>Name : милада
- Surname: Savitskaya
- email: cow007@mail.ru 
- Password : A123456!</t>
   </si>
   <si>
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: милада Savitskaya</t>
@@ -560,10 +566,10 @@
     <t>Валидация Surname. Ввод цифр.</t>
   </si>
   <si>
-    <t>Name : Milada
- Surname: 123456
- email: cow007@mail.ru 
- Password : A123456!</t>
+    <t>Name: Eva
+ Surmame: 12
+ Email: evaprigoghaeva@gmail.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Пользователь не зарегистрирован. Внизу формы сообщение в красной области : 
@@ -573,37 +579,47 @@
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: Milada 123456</t>
   </si>
   <si>
-    <t>Валидация Surname. Ввод спецсимволов(! @ #)</t>
-  </si>
-  <si>
-    <t>Name : Milada
- Surname: @!#
- email: cow007@mail.ru 
- Password : A123456!</t>
-  </si>
-  <si>
-    <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: Milada @!#</t>
+    <t>Валидация Surname. Ввод спецсимволов(! * #)</t>
+  </si>
+  <si>
+    <t>Name: Eva
+ Surmame: !*#
+ Email: evaprigoghaeva@gmail.com
+ Password: 1234567B!</t>
+  </si>
+  <si>
+    <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: Eva !*#</t>
   </si>
   <si>
     <t>Валидация Surname. Минимальное значение</t>
   </si>
   <si>
-    <t>Name : Milada
- Surname: A
- email: cow007@mail.ru 
- Password : A123456!</t>
+    <t>Name: Eva
+ Surmame: B
+ Email: evaprigoghaeva@gmail.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Валидация Surname. Максимальное значение</t>
   </si>
   <si>
-    <t>Name : Milada
- Surname: Maaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa
- email: cow007@mail.ru 
- Password : A123456!</t>
+    <t>Name: Eva
+ Surmame: Boyarenkoooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo
+ Email: evaprigoghaeva@gmail.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Валидация Surname. Пустое поле</t>
+  </si>
+  <si>
+    <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success, вы зарегистрированы!</t>
+  </si>
+  <si>
+    <t>Пользователь не зарегистрирован. Внизу формы сообщение об ошибке :
+ Error: Error: All Fields are Required</t>
+  </si>
+  <si>
+    <t>Валидация Surname. Пробелы</t>
   </si>
   <si>
     <t>Name : Milada
@@ -612,20 +628,13 @@
  Password : A123456!</t>
   </si>
   <si>
-    <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success, вы зарегистрированы!</t>
-  </si>
-  <si>
-    <t>Пользователь не зарегистрирован. Внизу формы сообщение об ошибке :
- Error: Error: All Fields are Required</t>
-  </si>
-  <si>
     <t>Пользователь не зарегистрирован. Внизу формы в голубом окне сообщение : Success, вы зарегистрированы!</t>
   </si>
   <si>
-    <t>Name : Milada
- Surname: Савиckaya
- email: cow007@mail.ru 
- Password : A123456!</t>
+    <t>Name: Eva
+ Surmame: Бoyarenko
+ Email: evaprigoghaeva@gmail.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Пользователь не зарегистрирован. Внизу формы сообщение в красном окне : 
@@ -647,10 +656,10 @@
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: Milada savitskaya</t>
   </si>
   <si>
-    <t>Name : Milada
- Surname: SAVITSKAYA
- email: cow007@mail.ru 
- Password : A123456!</t>
+    <t>Name: Eva
+ Surmame: BJYARENKO
+ Email: evaprigoghaeva@gmail.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: Milada SAVITSKAYA</t>
@@ -659,10 +668,10 @@
     <t>Валидация Surname. Ввод латиницей c "."</t>
   </si>
   <si>
-    <t>Name : Milada
- Surname: Savitskay.a
- email: cow007@mail.ru 
- Password : A123456!</t>
+    <t>Name: Eva
+ Surmame: Boyarenko.
+ Email: evaprigoghaeva@gmail.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: Milada Savitskay.a</t>
@@ -671,19 +680,19 @@
     <t>Валидация Surname. Ввод латиницей c "/"</t>
   </si>
   <si>
-    <t>Name : Milada
- Surname: Savitskaya/
- email: cow007@mail.ru 
- Password : A123456!</t>
+    <t>Name: Eva
+ Surmame: /Boyarenko
+ Email: evaprigoghaeva@gmail.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: Milada Savitskaya/</t>
   </si>
   <si>
-    <t>Name : Milada
- Surname: http://itcareer.pythonanywhere.com/
- email: cow007@mail.ru 
- Password : A123456!</t>
+    <t>Name: Eva
+Surmame:https://docs.google.com/spreadsheets/d/1m8FkwmQa4Um2ZrYV5lTHJtwXy2t48X-gcrDesndNwoM/edit#gid=979126083
+Email: evaprigoghaeva@gmail.com
+Password: 1234567B!</t>
   </si>
   <si>
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: Milada http://itcareer.pythonanywhere.com/</t>
@@ -692,10 +701,10 @@
     <t>Валидация Surname. Ввод значений смешанного типа</t>
   </si>
   <si>
-    <t>Name : Milada
- Surname: Savit2./kaya!
- email: cow007@mail.ru 
- Password : A123456!</t>
+    <t>Name: Eva
+ Surmame: Boyare//..nko
+ Email: evaprigoghaeva@gmail.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: Milada Savit2./kaya!</t>
@@ -704,10 +713,11 @@
     <t>Валидация Surname. Ввод html тега: &lt;b&gt;text&lt;/b&gt;</t>
   </si>
   <si>
-    <t>Name : Milada
+    <t>Name : Eva
  Surname: &lt;b&gt;text&lt;/b&gt;
- email: cow007@mail.ru 
- Password : A123456!</t>
+ Surmame: Boyarenko
+ Email: evaprigoghaeva@gmail.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: Milada &lt;b&gt;text&lt;/b&gt;</t>
@@ -716,10 +726,10 @@
     <t>Валидация Surname. Ввод больше допустимого значения</t>
   </si>
   <si>
-    <t>Name : Milada
+    <t>Name : Eva
  Surname: Xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx
- email: cow007@mail.ru 
- Password : A123456!</t>
+ Email: evaprigoghaeva@gmail.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Пользователь зарегистрирован. Внизу формы в голубом окне сообщение : Success! Hello: Milada Xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx</t>
@@ -744,10 +754,10 @@
     <t>Валидация E-mail. Ввод с двумя "@".</t>
   </si>
   <si>
-    <t>Name : Milada
- Surname: A
- email: cow007@@mail.ru 
- Password : A123456!</t>
+    <t>Name: Eva
+ Surmame: Boyarenko
+ Email: evaprigoghaeva@@gmail.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Пользователь не зарегистрирован. Внизу формы сообщение в красном окне : 
@@ -760,73 +770,67 @@
     <t>Валидация E-mail. Ввод с одной буквой, числом и знаком в домене.</t>
   </si>
   <si>
-    <t>Name : Milada
- Surname: A
- email: cow007@m1!.ru 
- Password : A123456!</t>
+    <t>Name: Eva
+ Surmame: Boyarenko
+ Email: evaprigoghaeva@gma1.il.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Валидация E-mail. Ввод без домена.</t>
   </si>
   <si>
-    <t>Name : Milada
- Surname: A
- email: cow007@
- Password : A123456!</t>
+    <t>Name: Eva
+ Surmame: Boyarenko
+ Email: evaprigoghaeva@
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Валидация E-mail. Ввод без имени.</t>
   </si>
   <si>
-    <t>Name : Milada
- Surname: A
- email: @mail.ru
- Password : A123456!</t>
+    <t>Name: Eva
+ Surmame: Boyarenko
+ Email: @gmail.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Валидация E-mail. Ввод только "@"</t>
   </si>
   <si>
-    <t>Name : Milada
- Surname: A
- email: @
- Password : A123456!</t>
+    <t>Name: Eva
+ Surmame: Boyarenko
+ Email:@
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Валидация E-mail. Ввод только "."</t>
   </si>
   <si>
-    <t>Name : Milada
- Surname: A
- email: .
- Password : A123456!</t>
+    <t>Name: Eva
+ Surmame: Boyarenko
+ Email: .
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Валидация E-mail. Ввод с кириллицей в домене</t>
   </si>
   <si>
-    <t>Name : Milada
- Surname: A
- email: cow007@ьэйл.ру
- Password : A123456!</t>
+    <t>Name: Eva
+ Surmame: Boyarenko
+ Email: evaprigoghaeva@гмail.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Валидация E-mail. Ввод с кириллицей в имени</t>
   </si>
   <si>
-    <t>Name : Milada
- Surname: A
- email: мфйл@mail.ru
- Password : A123456!</t>
+    <t>Name: Eva
+ Surmame: Boyarenko
+ Email: еваааа@gmail.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Валидация E-mail. Ввод пустого поля</t>
-  </si>
-  <si>
-    <t>Name : Milada
- Surname: A
- email: 
- Password : A123456!</t>
   </si>
   <si>
     <t>Пользователь не зарегистрирован. Внизу формы сообщение в красном окне : 
@@ -836,37 +840,61 @@
     <t>Валидация E-mail. Ввод имени с пробелом</t>
   </si>
   <si>
-    <t>Name : Milada
- Surname: A
- email: cow 007@mail.ru
- Password : A123456!</t>
+    <t>Name: Eva
+ Surmame: Boyarenko
+ Email: evaprigo   ghaeva@gmail.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Валидация E-mail. Ввод корректного адреса с минимальным значением</t>
   </si>
   <si>
-    <t>Name : Milada
- Surname: A
- email: cow00007@mail.ru
- Password : A123456!</t>
+    <t>Name: Eva
+ Surmame: Boyarenko
+ Email: e@gmail.com
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Валидация E-mail. Ввод корректного адреса с максимальным значением</t>
   </si>
   <si>
-    <t>Name : Milada
- Surname: A
- email: cow0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000007@mail.ru
- Password : A123456!</t>
+    <t>Name : Eva
+ Surname: Boyarenko
+ email: eva0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000007@gmail.ru
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Валидация E-mail. Ввод ссылки.</t>
   </si>
   <si>
-    <t>Name : Milada
- Surname: A
- email: http://itcareer.pythonanywhere.com/
- Password : A123456!</t>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">Name: Eva
+ Surmame: Boyarenko
+ Email: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://docs.google.com/spreadsheets/d/1m8FkwmQa4Um2ZrYV5lTHJtwXy2t48X-gcrDesndNwoM/edit#gid=2126378611</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+ Password: 1234567B!</t>
+    </r>
   </si>
   <si>
     <t>Пользователь не зарегистрирован. Внизу формы в красном окне сообщение: 
@@ -879,19 +907,19 @@
     <t>Валидация E-mail. Пробелы в начале адреса и в конце.</t>
   </si>
   <si>
-    <t>Name : Milada
- Surname: A
- email: cow007@mail.ru
- Password : A123456!</t>
+    <t>Name: Eva
+ Surmame: Boyarenko
+ Email:   evaprigoghaeva@gmail.com  
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Валидация E-mail. Ввод Ввод html тега</t>
   </si>
   <si>
-    <t>Name : Milada
- Surname: A
- email: &lt;b&gt;text&lt;/b&gt;
- Password : A123456!</t>
+    <t>Name: Eva
+ Surmame: Boyarenko
+ Email: &lt;b&gt;text&lt;/b&gt;
+ Password: 1234567B!</t>
   </si>
   <si>
     <t>Требования к полю "Password"</t>
@@ -908,10 +936,10 @@
     <t>Валидация Password. Ввод цифр.</t>
   </si>
   <si>
-    <t>Name : Milada
- Surname: A
- email: cow007@mail.ru
- Password : 123456789</t>
+    <t>Name: Eva
+ Surmame: Boyarenko
+ Email: evaprigoghaeva@gmail.com
+ Password: 1234567</t>
   </si>
   <si>
     <t>Пользователь не зарегистрирован. Внизу формы в красном окне сообщение: Error: Не верно заполнено поле Password. Поле Password подсвечивается красной рамочкой</t>
@@ -923,10 +951,10 @@
     <t>Валидация Password. Ввод спецсимволов(! @ #)</t>
   </si>
   <si>
-    <t>Name : Milada
- Surname: A
- email: cow007@mail.ru
- Password : ##@@!!!!!!!</t>
+    <t>Name: Eva
+ Surmame: Boyarenko
+ Email: evaprigoghaeva@gmail.com
+ Password : ##@@!!!!!</t>
   </si>
   <si>
     <t>Валидация Password. Корректный пароль.Минимальное значение</t>
@@ -1300,7 +1328,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1338,6 +1366,12 @@
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
+      <name val="&quot;Times New Roman&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0000FF"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
@@ -1387,6 +1421,12 @@
       <name val="Times New Roman"/>
     </font>
     <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -1398,26 +1438,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <u/>
       <sz val="12.0"/>
       <color rgb="FF1155CC"/>
-      <name val="&quot;Times New Roman&quot;"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
-      <name val="Roboto"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -1439,12 +1468,6 @@
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12.0"/>
-      <color rgb="FF1155CC"/>
       <name val="Times New Roman"/>
     </font>
     <font>
@@ -1663,7 +1686,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="96">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1737,136 +1760,114 @@
     <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="7" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="7" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="7" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="6" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="9" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="7" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1875,69 +1876,54 @@
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="7" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="9" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="9" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="8" fillId="10" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="10" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="10" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="8" fillId="10" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="10" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="10" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1946,7 +1932,7 @@
     <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2201,7 +2187,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="4.63"/>
     <col customWidth="1" min="2" max="2" width="21.75"/>
-    <col customWidth="1" min="3" max="3" width="16.88"/>
+    <col customWidth="1" min="3" max="3" width="20.88"/>
     <col customWidth="1" min="4" max="4" width="38.13"/>
     <col customWidth="1" min="5" max="5" width="56.5"/>
     <col customWidth="1" min="6" max="6" width="8.25"/>
@@ -2417,7 +2403,7 @@
       <c r="F14" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="27" t="s">
         <v>35</v>
       </c>
       <c r="H14" s="17"/>
@@ -2436,10 +2422,10 @@
       <c r="E15" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="28"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="17"/>
     </row>
     <row r="16">
@@ -2456,7 +2442,7 @@
       <c r="E16" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="28" t="s">
         <v>38</v>
       </c>
       <c r="G16" s="23"/>
@@ -2479,7 +2465,7 @@
       <c r="F17" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="27" t="s">
         <v>44</v>
       </c>
       <c r="H17" s="17"/>
@@ -2501,7 +2487,7 @@
       <c r="F18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="27" t="s">
         <v>48</v>
       </c>
       <c r="H18" s="17"/>
@@ -2523,7 +2509,7 @@
       <c r="F19" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="27" t="s">
         <v>52</v>
       </c>
       <c r="H19" s="17"/>
@@ -2542,7 +2528,7 @@
       <c r="E20" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="28" t="s">
         <v>38</v>
       </c>
       <c r="G20" s="23"/>
@@ -2564,7 +2550,7 @@
       <c r="E21" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="28" t="s">
         <v>38</v>
       </c>
       <c r="G21" s="23"/>
@@ -2587,7 +2573,7 @@
       <c r="F22" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="27" t="s">
         <v>61</v>
       </c>
       <c r="H22" s="17"/>
@@ -2633,7 +2619,7 @@
       <c r="F24" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="27" t="s">
         <v>70</v>
       </c>
       <c r="H24" s="17"/>
@@ -2694,7 +2680,7 @@
         <v>80</v>
       </c>
       <c r="E27" s="23"/>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="28" t="s">
         <v>38</v>
       </c>
       <c r="G27" s="23"/>
@@ -2717,7 +2703,7 @@
       <c r="F28" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="27" t="s">
         <v>84</v>
       </c>
       <c r="H28" s="17"/>
@@ -2739,56 +2725,56 @@
       <c r="F29" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="26" t="s">
+      <c r="G29" s="27" t="s">
         <v>88</v>
       </c>
       <c r="H29" s="17"/>
     </row>
     <row r="30">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="17"/>
     </row>
     <row r="31">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
     </row>
     <row r="32">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
     </row>
     <row r="33">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
     </row>
     <row r="34">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -2799,9 +2785,9 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
     <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A8:G8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A2:B2"/>
@@ -2845,59 +2831,59 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>89</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>90</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>91</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>95</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="39" t="s">
         <v>96</v>
       </c>
       <c r="B5" s="13"/>
@@ -2908,7 +2894,7 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>97</v>
       </c>
       <c r="B6" s="13"/>
@@ -2919,7 +2905,7 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>98</v>
       </c>
       <c r="B7" s="13"/>
@@ -2930,430 +2916,430 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="44" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="44">
+      <c r="A9" s="45">
         <v>1.0</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="47" t="s">
+      <c r="F9" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="48" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="44">
+      <c r="A10" s="45">
         <v>2.0</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="45" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="45">
+        <v>3.0</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E11" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="45">
+        <v>4.0</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="44">
-        <v>3.0</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="44">
-        <v>4.0</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="45" t="s">
+      <c r="F12" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="49"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="45">
+        <v>5.0</v>
+      </c>
+      <c r="B13" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="C13" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="48"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="44">
-        <v>5.0</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="45" t="s">
+      <c r="F13" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="49"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="45">
+        <v>6.0</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="49"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="45">
+        <v>7.0</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="45" t="s">
+      <c r="E15" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="49"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="45">
+        <v>8.0</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="48"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="44">
-        <v>6.0</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="48"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="44">
-        <v>7.0</v>
-      </c>
-      <c r="B15" s="45" t="s">
+      <c r="F16" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="49"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="45">
+        <v>9.0</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="49"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="45">
+        <v>10.0</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="49"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="45">
+        <v>11.0</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="49"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="45">
+        <v>12.0</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="49"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="45">
+        <v>13.0</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="49"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="45">
+        <v>14.0</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="49"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="45">
+        <v>15.0</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="49"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="45">
+        <v>16.0</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="48"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="44">
-        <v>8.0</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="48"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="44">
-        <v>9.0</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="48"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="44">
-        <v>10.0</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="48"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="44">
-        <v>11.0</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="48"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="44">
-        <v>12.0</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="48"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="44">
-        <v>13.0</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="48"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="44">
-        <v>14.0</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="48"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="44">
-        <v>15.0</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" s="45" t="s">
+      <c r="D24" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="F23" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="48"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="44">
-        <v>16.0</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="48"/>
+      <c r="F24" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="49"/>
     </row>
     <row r="25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
     </row>
     <row r="26">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
     </row>
     <row r="27">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
     </row>
     <row r="28">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
     </row>
     <row r="29">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
     </row>
     <row r="30">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A5:G5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A2:B2"/>
@@ -3367,6 +3353,7 @@
     <hyperlink r:id="rId2" ref="G9"/>
     <hyperlink r:id="rId3" ref="G10"/>
     <hyperlink r:id="rId4" ref="G11"/>
+    <hyperlink display="Name: Eva&#10; Surmame: https://docs.google.com/spreadsheets/d/1m8FkwmQa4Um2ZrYV5lTHJtwXy2t48X-gcrDesndNwoM/edit#gid=20308804&#10; Email: evaprigoghaeva@gmail.com&#10; Password: 1234567B!" location="'ЧекЛист Name'!A1" ref="C22"/>
   </hyperlinks>
   <drawing r:id="rId5"/>
 </worksheet>
@@ -3391,20 +3378,20 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="32" t="s">
         <v>89</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="54" t="s">
         <v>90</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" s="54"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="55"/>
       <c r="G1" s="55"/>
     </row>
     <row r="2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="32" t="s">
         <v>91</v>
       </c>
       <c r="B2" s="3"/>
@@ -3412,12 +3399,12 @@
         <v>92</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="54"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="55"/>
       <c r="G2" s="55"/>
     </row>
     <row r="3">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="32" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="3"/>
@@ -3425,12 +3412,12 @@
         <v>94</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="54"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="55"/>
       <c r="G3" s="55"/>
     </row>
     <row r="4">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="32" t="s">
         <v>95</v>
       </c>
       <c r="B4" s="3"/>
@@ -3438,35 +3425,35 @@
         <v>3</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="54"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="55"/>
       <c r="G4" s="55"/>
     </row>
     <row r="5">
-      <c r="A5" s="58" t="s">
-        <v>149</v>
+      <c r="A5" s="39" t="s">
+        <v>146</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="54"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
     </row>
     <row r="6">
-      <c r="A6" s="59" t="s">
-        <v>150</v>
+      <c r="A6" s="40" t="s">
+        <v>147</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="54"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
     </row>
     <row r="7">
-      <c r="A7" s="60" t="s">
-        <v>151</v>
+      <c r="A7" s="58" t="s">
+        <v>148</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -3476,487 +3463,487 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="64" t="s">
+      <c r="G8" s="62" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="65">
+      <c r="A9" s="45">
         <v>1.0</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="F9" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="49"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="45">
+        <v>2.0</v>
+      </c>
+      <c r="B10" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="C10" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="D10" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="F9" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="68"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="65">
-        <v>2.0</v>
-      </c>
-      <c r="B10" s="66" t="s">
+      <c r="F10" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="49"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="45">
+        <v>3.0</v>
+      </c>
+      <c r="B11" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C11" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="D10" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="E10" s="66" t="s">
+      <c r="D11" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="49"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="45">
+        <v>4.0</v>
+      </c>
+      <c r="B12" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="65">
-        <v>3.0</v>
-      </c>
-      <c r="B11" s="66" t="s">
+      <c r="C12" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="D12" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="49"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="45">
+        <v>5.0</v>
+      </c>
+      <c r="B13" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="68"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="65">
-        <v>4.0</v>
-      </c>
-      <c r="B12" s="66" t="s">
+      <c r="C13" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="E13" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="65">
-        <v>5.0</v>
-      </c>
-      <c r="B13" s="66" t="s">
+      <c r="F13" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="49"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="45">
+        <v>6.0</v>
+      </c>
+      <c r="B14" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C14" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D14" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E14" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="49"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="45">
+        <v>7.0</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="F13" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="65">
-        <v>6.0</v>
-      </c>
-      <c r="B14" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14" s="66" t="s">
+      <c r="D15" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="E14" s="71" t="s">
-        <v>166</v>
-      </c>
-      <c r="F14" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="65">
-        <v>7.0</v>
-      </c>
-      <c r="B15" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="66" t="s">
+      <c r="E15" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="F15" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="49"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="45">
+        <v>8.0</v>
+      </c>
+      <c r="B16" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="E15" s="66" t="s">
+      <c r="C16" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="F15" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="68"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="65">
-        <v>8.0</v>
-      </c>
-      <c r="B16" s="66" t="s">
+      <c r="D16" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="F16" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="49"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="45">
+        <v>9.0</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="E16" s="66" t="s">
+      <c r="D17" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="F16" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="68"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="65">
-        <v>9.0</v>
-      </c>
-      <c r="B17" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" s="66" t="s">
+      <c r="F17" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="49"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="45">
+        <v>10.0</v>
+      </c>
+      <c r="B18" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="D17" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="E17" s="66" t="s">
+      <c r="C18" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="F17" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="68"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="65">
-        <v>10.0</v>
-      </c>
-      <c r="B18" s="66" t="s">
+      <c r="D18" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="F18" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="49"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="45">
+        <v>11.0</v>
+      </c>
+      <c r="B19" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="D18" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="E18" s="66" t="s">
+      <c r="C19" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="F18" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="65">
-        <v>11.0</v>
-      </c>
-      <c r="B19" s="66" t="s">
+      <c r="D19" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="F19" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="49"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="45">
+        <v>12.0</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="D19" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="E19" s="66" t="s">
+      <c r="D20" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="F19" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="68"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="65">
-        <v>12.0</v>
-      </c>
-      <c r="B20" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="66" t="s">
+      <c r="F20" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="49"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="45">
+        <v>13.0</v>
+      </c>
+      <c r="B21" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="D20" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="E20" s="66" t="s">
+      <c r="C21" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="F20" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="68"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="65">
-        <v>13.0</v>
-      </c>
-      <c r="B21" s="72" t="s">
+      <c r="D21" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="F21" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="49"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="45">
+        <v>14.0</v>
+      </c>
+      <c r="B22" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="D21" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="E21" s="66" t="s">
+      <c r="C22" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="F21" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="68"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="65">
-        <v>14.0</v>
-      </c>
-      <c r="B22" s="72" t="s">
+      <c r="D22" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="F22" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="49"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="45">
+        <v>15.0</v>
+      </c>
+      <c r="B23" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="D22" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="E22" s="66" t="s">
+      <c r="C23" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="F22" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="68"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="65">
-        <v>15.0</v>
-      </c>
-      <c r="B23" s="72" t="s">
+      <c r="D23" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="C23" s="66" t="s">
-        <v>191</v>
-      </c>
-      <c r="D23" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="E23" s="66" t="s">
-        <v>192</v>
-      </c>
-      <c r="F23" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="68"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
+      <c r="F23" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="49"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
     </row>
     <row r="24">
-      <c r="A24" s="73"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
     </row>
     <row r="25">
-      <c r="A25" s="69"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
     </row>
     <row r="26">
-      <c r="A26" s="69"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
     </row>
     <row r="27">
-      <c r="A27" s="69"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
     </row>
     <row r="28">
-      <c r="A28" s="69"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3991,91 +3978,91 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="3.75"/>
     <col customWidth="1" min="2" max="2" width="26.5"/>
-    <col customWidth="1" min="3" max="3" width="22.5"/>
+    <col customWidth="1" min="3" max="3" width="27.13"/>
     <col customWidth="1" min="4" max="4" width="35.13"/>
     <col customWidth="1" min="5" max="5" width="33.38"/>
     <col customWidth="1" min="6" max="6" width="7.5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="66" t="s">
         <v>89</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="67" t="s">
         <v>90</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
     </row>
     <row r="2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="66" t="s">
         <v>91</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="69" t="s">
         <v>92</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
     </row>
     <row r="3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="66" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="69" t="s">
         <v>94</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
     </row>
     <row r="4">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="66" t="s">
         <v>95</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="70" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
     </row>
     <row r="5">
-      <c r="A5" s="79" t="s">
-        <v>193</v>
+      <c r="A5" s="71" t="s">
+        <v>191</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -4083,16 +4070,16 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
     </row>
     <row r="6">
-      <c r="A6" s="80" t="s">
-        <v>194</v>
+      <c r="A6" s="72" t="s">
+        <v>192</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -4100,16 +4087,16 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
     </row>
     <row r="7">
-      <c r="A7" s="40" t="s">
-        <v>195</v>
+      <c r="A7" s="41" t="s">
+        <v>193</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -4117,554 +4104,556 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
     </row>
     <row r="8">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="68"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="45">
+        <v>1.0</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="F8" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="B9" s="45" t="s">
+      <c r="D9" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="E9" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="F9" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="49"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="45">
+        <v>2.0</v>
+      </c>
+      <c r="B10" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="C10" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="F9" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="B10" s="45" t="s">
+      <c r="D10" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="49"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="45">
+        <v>3.0</v>
+      </c>
+      <c r="B11" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C11" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="D10" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="44">
-        <v>3.0</v>
-      </c>
-      <c r="B11" s="45" t="s">
+      <c r="D11" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="49"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="45">
+        <v>4.0</v>
+      </c>
+      <c r="B12" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C12" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="D11" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="44">
-        <v>4.0</v>
-      </c>
-      <c r="B12" s="45" t="s">
+      <c r="D12" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="49"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="45">
+        <v>5.0</v>
+      </c>
+      <c r="B13" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C13" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="44">
-        <v>5.0</v>
-      </c>
-      <c r="B13" s="45" t="s">
+      <c r="D13" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="49"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="45">
+        <v>6.0</v>
+      </c>
+      <c r="B14" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C14" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="D13" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="44">
-        <v>6.0</v>
-      </c>
-      <c r="B14" s="45" t="s">
+      <c r="D14" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="49"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="45">
+        <v>7.0</v>
+      </c>
+      <c r="B15" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C15" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="D14" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="44">
-        <v>7.0</v>
-      </c>
-      <c r="B15" s="49" t="s">
+      <c r="D15" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="49"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="45">
+        <v>8.0</v>
+      </c>
+      <c r="B16" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C16" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="D15" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="44">
-        <v>8.0</v>
-      </c>
-      <c r="B16" s="49" t="s">
+      <c r="D16" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="49"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="45">
+        <v>9.0</v>
+      </c>
+      <c r="B17" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C17" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="D16" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="44">
-        <v>9.0</v>
-      </c>
-      <c r="B17" s="49" t="s">
+      <c r="E17" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="49"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="45">
+        <v>10.0</v>
+      </c>
+      <c r="B18" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C18" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D18" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="49"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="45">
+        <v>11.0</v>
+      </c>
+      <c r="B19" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="E17" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="F17" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="44">
-        <v>10.0</v>
-      </c>
-      <c r="B18" s="49" t="s">
+      <c r="C19" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="D19" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="49"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="45">
+        <v>12.0</v>
+      </c>
+      <c r="B20" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="D18" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="44">
-        <v>11.0</v>
-      </c>
-      <c r="B19" s="49" t="s">
+      <c r="C20" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="D20" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="49"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="45">
+        <v>13.0</v>
+      </c>
+      <c r="B21" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="D19" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="44">
-        <v>12.0</v>
-      </c>
-      <c r="B20" s="49" t="s">
+      <c r="C21" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="D21" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="D20" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="44">
-        <v>13.0</v>
-      </c>
-      <c r="B21" s="49" t="s">
+      <c r="E21" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="F21" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="49"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="45">
+        <v>14.0</v>
+      </c>
+      <c r="B22" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="C22" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="D22" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="49"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="45">
+        <v>15.0</v>
+      </c>
+      <c r="B23" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="F21" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="44">
-        <v>14.0</v>
-      </c>
-      <c r="B22" s="49" t="s">
+      <c r="C23" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="C22" s="45" t="s">
-        <v>229</v>
-      </c>
-      <c r="D22" s="45" t="s">
+      <c r="D23" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="E23" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="44">
-        <v>15.0</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
+      <c r="F23" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="49"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
     </row>
     <row r="24">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="82"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="73"/>
     </row>
     <row r="25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="82"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="73"/>
     </row>
     <row r="26">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
     </row>
     <row r="27">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
     </row>
     <row r="28">
-      <c r="A28" s="83"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
     </row>
     <row r="29">
-      <c r="A29" s="83"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
     </row>
     <row r="30">
-      <c r="A30" s="83"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
     </row>
     <row r="31">
-      <c r="A31" s="83"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
     </row>
     <row r="32">
-      <c r="A32" s="83"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
     </row>
     <row r="33">
-      <c r="A33" s="83"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
     </row>
     <row r="34">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
     </row>
     <row r="35">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4682,6 +4671,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C4"/>
+    <hyperlink display="Name: Eva&#10; Surmame: Boyarenko&#10; Email: https://docs.google.com/spreadsheets/d/1m8FkwmQa4Um2ZrYV5lTHJtwXy2t48X-gcrDesndNwoM/edit#gid=2126378611&#10; Password: 1234567B!" location="'ЧекЛист E-mail '!A1" ref="C21"/>
   </hyperlinks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -4699,70 +4689,70 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="3.38"/>
     <col customWidth="1" min="2" max="2" width="19.0"/>
-    <col customWidth="1" min="3" max="3" width="21.38"/>
+    <col customWidth="1" min="3" max="3" width="25.38"/>
     <col customWidth="1" min="4" max="4" width="36.0"/>
     <col customWidth="1" min="5" max="5" width="29.5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>89</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="54" t="s">
         <v>90</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="82"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>91</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="56" t="s">
         <v>92</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="82"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="56" t="s">
         <v>94</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="82"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="4">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>95</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="57" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="82"/>
+      <c r="H4" s="73"/>
     </row>
     <row r="5">
-      <c r="A5" s="87" t="s">
-        <v>232</v>
+      <c r="A5" s="75" t="s">
+        <v>229</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -4770,11 +4760,11 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="82"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6">
-      <c r="A6" s="88" t="s">
-        <v>233</v>
+      <c r="A6" s="76" t="s">
+        <v>230</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -4782,11 +4772,11 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="82"/>
+      <c r="H6" s="73"/>
     </row>
     <row r="7">
-      <c r="A7" s="89" t="s">
-        <v>234</v>
+      <c r="A7" s="58" t="s">
+        <v>231</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -4794,408 +4784,408 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="82"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="H8" s="82"/>
+      <c r="H8" s="73"/>
     </row>
     <row r="9">
-      <c r="A9" s="44">
+      <c r="A9" s="45">
         <v>1.0</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="E9" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="F9" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="49"/>
+      <c r="H9" s="73"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="45">
+        <v>2.0</v>
+      </c>
+      <c r="B10" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="C10" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="D10" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="49"/>
+      <c r="H10" s="73"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="45">
+        <v>3.0</v>
+      </c>
+      <c r="B11" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="F9" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="82"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="B10" s="45" t="s">
+      <c r="C11" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="D11" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="E11" s="49"/>
+      <c r="F11" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="49"/>
+      <c r="H11" s="73"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="45">
+        <v>4.0</v>
+      </c>
+      <c r="B12" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="D10" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="82"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="44">
-        <v>3.0</v>
-      </c>
-      <c r="B11" s="45" t="s">
+      <c r="C12" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="D12" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="49"/>
+      <c r="H12" s="73"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="45">
+        <v>5.0</v>
+      </c>
+      <c r="B13" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="D11" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="82"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="44">
-        <v>4.0</v>
-      </c>
-      <c r="B12" s="45" t="s">
+      <c r="C13" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="D13" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="49"/>
+      <c r="H13" s="73"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="45">
+        <v>6.0</v>
+      </c>
+      <c r="B14" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="D12" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="82"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="44">
-        <v>5.0</v>
-      </c>
-      <c r="B13" s="45" t="s">
+      <c r="C14" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="49"/>
+      <c r="H14" s="73"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="45">
+        <v>7.0</v>
+      </c>
+      <c r="B15" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C15" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="D13" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="82"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="44">
-        <v>6.0</v>
-      </c>
-      <c r="B14" s="45" t="s">
+      <c r="D15" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="49"/>
+      <c r="H15" s="73"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="45">
+        <v>8.0</v>
+      </c>
+      <c r="B16" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="C14" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="82"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="44">
-        <v>7.0</v>
-      </c>
-      <c r="B15" s="45" t="s">
+      <c r="C16" s="46" t="s">
         <v>248</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="D16" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="49"/>
+      <c r="H16" s="73"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="45">
+        <v>9.0</v>
+      </c>
+      <c r="B17" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="D15" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="82"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="44">
-        <v>8.0</v>
-      </c>
-      <c r="B16" s="45" t="s">
+      <c r="C17" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="D17" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="49"/>
+      <c r="H17" s="73"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="45">
+        <v>10.0</v>
+      </c>
+      <c r="B18" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="D16" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="82"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="44">
-        <v>9.0</v>
-      </c>
-      <c r="B17" s="45" t="s">
+      <c r="C18" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="D18" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="49"/>
+      <c r="H18" s="73"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="45">
+        <v>11.0</v>
+      </c>
+      <c r="B19" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="D17" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F17" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="82"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="44">
-        <v>10.0</v>
-      </c>
-      <c r="B18" s="45" t="s">
+      <c r="C19" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="D19" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="49"/>
+      <c r="H19" s="73"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="45">
+        <v>12.0</v>
+      </c>
+      <c r="B20" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="D18" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="82"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="44">
-        <v>11.0</v>
-      </c>
-      <c r="B19" s="45" t="s">
+      <c r="C20" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="D20" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="49"/>
+      <c r="H20" s="73"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="45">
+        <v>13.0</v>
+      </c>
+      <c r="B21" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="D19" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="82"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="44">
-        <v>12.0</v>
-      </c>
-      <c r="B20" s="49" t="s">
+      <c r="C21" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="D21" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="49"/>
+      <c r="H21" s="73"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="45">
+        <v>14.0</v>
+      </c>
+      <c r="B22" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="D20" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="82"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="44">
-        <v>13.0</v>
-      </c>
-      <c r="B21" s="49" t="s">
+      <c r="C22" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="D22" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="49"/>
+      <c r="H22" s="73"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="45">
+        <v>15.0</v>
+      </c>
+      <c r="B23" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="D21" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="82"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="44">
-        <v>14.0</v>
-      </c>
-      <c r="B22" s="49" t="s">
+      <c r="C23" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="C22" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="82"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="44">
-        <v>15.0</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>264</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="82"/>
+      <c r="D23" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="49"/>
+      <c r="H23" s="73"/>
     </row>
     <row r="24">
-      <c r="A24" s="34"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="82"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="73"/>
     </row>
     <row r="25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
     </row>
     <row r="26">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
     </row>
     <row r="27">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A7:G7"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C4"/>
@@ -5222,619 +5212,619 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="92"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
     </row>
     <row r="2">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="84" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" s="84" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="F2" s="84" t="s">
         <v>267</v>
       </c>
-      <c r="D2" s="97" t="s">
+      <c r="G2" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="E2" s="97" t="s">
+      <c r="H2" s="84" t="s">
         <v>269</v>
       </c>
-      <c r="F2" s="97" t="s">
+      <c r="I2" s="84" t="s">
         <v>270</v>
       </c>
-      <c r="G2" s="97" t="s">
+      <c r="J2" s="84" t="s">
         <v>271</v>
       </c>
-      <c r="H2" s="97" t="s">
+      <c r="K2" s="85" t="s">
         <v>272</v>
       </c>
-      <c r="I2" s="97" t="s">
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="87">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="87" t="s">
         <v>273</v>
       </c>
-      <c r="J2" s="97" t="s">
+      <c r="C3" s="87" t="s">
         <v>274</v>
       </c>
-      <c r="K2" s="98" t="s">
+      <c r="D3" s="88"/>
+      <c r="E3" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="100">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="100" t="s">
+      <c r="F3" s="89" t="s">
         <v>276</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="G3" s="90" t="s">
         <v>277</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="100" t="s">
+      <c r="H3" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="87" t="s">
         <v>278</v>
       </c>
-      <c r="F3" s="102" t="s">
+      <c r="J3" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="87" t="s">
         <v>279</v>
       </c>
-      <c r="G3" s="103" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="91">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="91" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="92"/>
+      <c r="E4" s="91" t="s">
         <v>280</v>
       </c>
-      <c r="H3" s="100" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="100" t="s">
+      <c r="F4" s="93"/>
+      <c r="G4" s="94" t="s">
         <v>281</v>
       </c>
-      <c r="J3" s="100" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="100" t="s">
+      <c r="H4" s="91" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="104">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="104" t="s">
-        <v>276</v>
-      </c>
-      <c r="C4" s="104" t="s">
-        <v>277</v>
-      </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="104" t="s">
+      <c r="I4" s="91" t="s">
         <v>283</v>
       </c>
-      <c r="F4" s="106"/>
-      <c r="G4" s="107" t="s">
+      <c r="J4" s="91" t="s">
         <v>284</v>
       </c>
-      <c r="H4" s="104" t="s">
+      <c r="K4" s="91" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="91">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="91" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" s="92"/>
+      <c r="E5" s="91" t="s">
         <v>285</v>
       </c>
-      <c r="I4" s="104" t="s">
+      <c r="F5" s="93"/>
+      <c r="G5" s="94" t="s">
         <v>286</v>
       </c>
-      <c r="J4" s="104" t="s">
+      <c r="H5" s="91" t="s">
         <v>287</v>
       </c>
-      <c r="K4" s="104" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="104">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="104" t="s">
-        <v>276</v>
-      </c>
-      <c r="C5" s="104" t="s">
-        <v>277</v>
-      </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="104" t="s">
+      <c r="I5" s="91" t="s">
         <v>288</v>
       </c>
-      <c r="F5" s="106"/>
-      <c r="G5" s="107" t="s">
+      <c r="J5" s="91" t="s">
         <v>289</v>
       </c>
-      <c r="H5" s="104" t="s">
+      <c r="K5" s="91" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="91">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="91" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="92"/>
+      <c r="E6" s="91" t="s">
         <v>290</v>
       </c>
-      <c r="I5" s="104" t="s">
+      <c r="F6" s="93"/>
+      <c r="G6" s="94" t="s">
         <v>291</v>
       </c>
-      <c r="J5" s="104" t="s">
+      <c r="H6" s="91" t="s">
         <v>292</v>
       </c>
-      <c r="K5" s="104" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="104">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="104" t="s">
-        <v>276</v>
-      </c>
-      <c r="C6" s="104" t="s">
-        <v>277</v>
-      </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="104" t="s">
+      <c r="I6" s="91" t="s">
         <v>293</v>
       </c>
-      <c r="F6" s="106"/>
-      <c r="G6" s="107" t="s">
+      <c r="J6" s="91" t="s">
         <v>294</v>
       </c>
-      <c r="H6" s="104" t="s">
+      <c r="K6" s="91" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="91">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" s="92"/>
+      <c r="E7" s="91" t="s">
         <v>295</v>
       </c>
-      <c r="I6" s="104" t="s">
+      <c r="F7" s="93"/>
+      <c r="G7" s="91" t="s">
         <v>296</v>
       </c>
-      <c r="J6" s="104" t="s">
+      <c r="H7" s="91" t="s">
         <v>297</v>
       </c>
-      <c r="K6" s="104" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="104">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="104" t="s">
-        <v>276</v>
-      </c>
-      <c r="C7" s="104" t="s">
-        <v>277</v>
-      </c>
-      <c r="D7" s="105"/>
-      <c r="E7" s="104" t="s">
+      <c r="I7" s="91" t="s">
         <v>298</v>
       </c>
-      <c r="F7" s="106"/>
-      <c r="G7" s="104" t="s">
+      <c r="J7" s="91" t="s">
         <v>299</v>
       </c>
-      <c r="H7" s="104" t="s">
+      <c r="K7" s="91" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="91">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="92"/>
+      <c r="E8" s="91" t="s">
         <v>300</v>
       </c>
-      <c r="I7" s="104" t="s">
+      <c r="F8" s="93"/>
+      <c r="G8" s="91" t="s">
         <v>301</v>
       </c>
-      <c r="J7" s="104" t="s">
+      <c r="H8" s="91" t="s">
         <v>302</v>
       </c>
-      <c r="K7" s="104" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="104">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="104" t="s">
-        <v>276</v>
-      </c>
-      <c r="C8" s="104" t="s">
-        <v>277</v>
-      </c>
-      <c r="D8" s="105"/>
-      <c r="E8" s="104" t="s">
+      <c r="I8" s="91" t="s">
         <v>303</v>
       </c>
-      <c r="F8" s="106"/>
-      <c r="G8" s="104" t="s">
+      <c r="J8" s="91" t="s">
         <v>304</v>
       </c>
-      <c r="H8" s="104" t="s">
+      <c r="K8" s="91" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="91">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="91" t="s">
         <v>305</v>
       </c>
-      <c r="I8" s="104" t="s">
+      <c r="K9" s="91" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="91">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="91" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" s="92"/>
+      <c r="E10" s="91" t="s">
         <v>306</v>
       </c>
-      <c r="J8" s="104" t="s">
+      <c r="F10" s="93"/>
+      <c r="G10" s="91" t="s">
         <v>307</v>
       </c>
-      <c r="K8" s="104" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="104">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="104" t="s">
+      <c r="H10" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="K9" s="104" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="104">
-        <v>8.0</v>
-      </c>
-      <c r="B10" s="104" t="s">
-        <v>276</v>
-      </c>
-      <c r="C10" s="104" t="s">
-        <v>277</v>
-      </c>
-      <c r="D10" s="105"/>
-      <c r="E10" s="104" t="s">
+      <c r="I10" s="91" t="s">
         <v>309</v>
       </c>
-      <c r="F10" s="106"/>
-      <c r="G10" s="104" t="s">
+      <c r="J10" s="91" t="s">
         <v>310</v>
       </c>
-      <c r="H10" s="104" t="s">
+      <c r="K10" s="91" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="91">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="91" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11" s="92"/>
+      <c r="E11" s="91" t="s">
         <v>311</v>
       </c>
-      <c r="I10" s="104" t="s">
+      <c r="F11" s="93"/>
+      <c r="G11" s="91" t="s">
         <v>312</v>
       </c>
-      <c r="J10" s="104" t="s">
+      <c r="H11" s="91" t="s">
         <v>313</v>
       </c>
-      <c r="K10" s="104" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="104">
-        <v>9.0</v>
-      </c>
-      <c r="B11" s="104" t="s">
-        <v>276</v>
-      </c>
-      <c r="C11" s="104" t="s">
-        <v>277</v>
-      </c>
-      <c r="D11" s="105"/>
-      <c r="E11" s="104" t="s">
+      <c r="I11" s="91" t="s">
         <v>314</v>
       </c>
-      <c r="F11" s="106"/>
-      <c r="G11" s="104" t="s">
+      <c r="J11" s="91" t="s">
         <v>315</v>
       </c>
-      <c r="H11" s="104" t="s">
+      <c r="K11" s="91" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="91">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="91" t="s">
+        <v>273</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12" s="92"/>
+      <c r="E12" s="91" t="s">
         <v>316</v>
       </c>
-      <c r="I11" s="104" t="s">
+      <c r="F12" s="93"/>
+      <c r="G12" s="91" t="s">
         <v>317</v>
       </c>
-      <c r="J11" s="104" t="s">
+      <c r="H12" s="91" t="s">
         <v>318</v>
       </c>
-      <c r="K11" s="104" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="104">
-        <v>10.0</v>
-      </c>
-      <c r="B12" s="104" t="s">
-        <v>276</v>
-      </c>
-      <c r="C12" s="104" t="s">
-        <v>277</v>
-      </c>
-      <c r="D12" s="105"/>
-      <c r="E12" s="104" t="s">
+      <c r="I12" s="91" t="s">
         <v>319</v>
       </c>
-      <c r="F12" s="106"/>
-      <c r="G12" s="104" t="s">
+      <c r="J12" s="91" t="s">
         <v>320</v>
       </c>
-      <c r="H12" s="104" t="s">
+      <c r="K12" s="91" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="91">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="91" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" s="92"/>
+      <c r="E13" s="91" t="s">
         <v>321</v>
       </c>
-      <c r="I12" s="104" t="s">
+      <c r="F13" s="93"/>
+      <c r="G13" s="91" t="s">
         <v>322</v>
       </c>
-      <c r="J12" s="104" t="s">
+      <c r="H13" s="91" t="s">
         <v>323</v>
       </c>
-      <c r="K12" s="104" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="104">
-        <v>11.0</v>
-      </c>
-      <c r="B13" s="104" t="s">
-        <v>276</v>
-      </c>
-      <c r="C13" s="104" t="s">
-        <v>277</v>
-      </c>
-      <c r="D13" s="105"/>
-      <c r="E13" s="104" t="s">
+      <c r="I13" s="91" t="s">
         <v>324</v>
       </c>
-      <c r="F13" s="106"/>
-      <c r="G13" s="104" t="s">
+      <c r="J13" s="92"/>
+      <c r="K13" s="91" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="91">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="91" t="s">
         <v>325</v>
       </c>
-      <c r="H13" s="104" t="s">
+      <c r="C14" s="91" t="s">
         <v>326</v>
       </c>
-      <c r="I13" s="104" t="s">
+      <c r="D14" s="92"/>
+      <c r="E14" s="91" t="s">
         <v>327</v>
       </c>
-      <c r="J13" s="105"/>
-      <c r="K13" s="104" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="104">
-        <v>12.0</v>
-      </c>
-      <c r="B14" s="104" t="s">
+      <c r="F14" s="93"/>
+      <c r="G14" s="91" t="s">
         <v>328</v>
       </c>
-      <c r="C14" s="104" t="s">
+      <c r="H14" s="91" t="s">
         <v>329</v>
       </c>
-      <c r="D14" s="105"/>
-      <c r="E14" s="104" t="s">
+      <c r="I14" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="92"/>
+      <c r="K14" s="91" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="91">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="91" t="s">
+        <v>325</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>326</v>
+      </c>
+      <c r="D15" s="92"/>
+      <c r="E15" s="91" t="s">
         <v>330</v>
       </c>
-      <c r="F14" s="106"/>
-      <c r="G14" s="104" t="s">
+      <c r="F15" s="95"/>
+      <c r="G15" s="91" t="s">
         <v>331</v>
       </c>
-      <c r="H14" s="104" t="s">
+      <c r="H15" s="91" t="s">
+        <v>329</v>
+      </c>
+      <c r="I15" s="91" t="s">
+        <v>235</v>
+      </c>
+      <c r="J15" s="92"/>
+      <c r="K15" s="91" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="91">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="91" t="s">
+        <v>325</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>326</v>
+      </c>
+      <c r="D16" s="92"/>
+      <c r="E16" s="91" t="s">
         <v>332</v>
       </c>
-      <c r="I14" s="104" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="105"/>
-      <c r="K14" s="104" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="104">
-        <v>13.0</v>
-      </c>
-      <c r="B15" s="104" t="s">
-        <v>328</v>
-      </c>
-      <c r="C15" s="104" t="s">
+      <c r="F16" s="92"/>
+      <c r="G16" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="H16" s="91" t="s">
         <v>329</v>
       </c>
-      <c r="D15" s="105"/>
-      <c r="E15" s="104" t="s">
-        <v>333</v>
-      </c>
-      <c r="F15" s="108"/>
-      <c r="G15" s="104" t="s">
+      <c r="I16" s="91" t="s">
+        <v>235</v>
+      </c>
+      <c r="J16" s="92"/>
+      <c r="K16" s="91" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="91">
+        <v>15.0</v>
+      </c>
+      <c r="B17" s="91" t="s">
+        <v>273</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="D17" s="92"/>
+      <c r="E17" s="91" t="s">
         <v>334</v>
       </c>
-      <c r="H15" s="104" t="s">
-        <v>332</v>
-      </c>
-      <c r="I15" s="104" t="s">
-        <v>238</v>
-      </c>
-      <c r="J15" s="105"/>
-      <c r="K15" s="104" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="104">
-        <v>14.0</v>
-      </c>
-      <c r="B16" s="104" t="s">
-        <v>328</v>
-      </c>
-      <c r="C16" s="104" t="s">
-        <v>329</v>
-      </c>
-      <c r="D16" s="105"/>
-      <c r="E16" s="104" t="s">
+      <c r="F17" s="92"/>
+      <c r="G17" s="91" t="s">
         <v>335</v>
       </c>
-      <c r="F16" s="105"/>
-      <c r="G16" s="104" t="s">
+      <c r="H17" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="H16" s="104" t="s">
-        <v>332</v>
-      </c>
-      <c r="I16" s="104" t="s">
-        <v>238</v>
-      </c>
-      <c r="J16" s="105"/>
-      <c r="K16" s="104" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="104">
-        <v>15.0</v>
-      </c>
-      <c r="B17" s="104" t="s">
-        <v>276</v>
-      </c>
-      <c r="C17" s="104" t="s">
-        <v>277</v>
-      </c>
-      <c r="D17" s="105"/>
-      <c r="E17" s="104" t="s">
+      <c r="I17" s="91" t="s">
         <v>337</v>
       </c>
-      <c r="F17" s="105"/>
-      <c r="G17" s="104" t="s">
-        <v>338</v>
-      </c>
-      <c r="H17" s="104" t="s">
-        <v>339</v>
-      </c>
-      <c r="I17" s="104" t="s">
-        <v>340</v>
-      </c>
-      <c r="J17" s="105"/>
-      <c r="K17" s="104" t="s">
-        <v>282</v>
+      <c r="J17" s="92"/>
+      <c r="K17" s="91" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="104">
+      <c r="A18" s="91">
         <v>16.0</v>
       </c>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="104" t="s">
-        <v>282</v>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="91" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="69"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
     </row>
     <row r="20">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
     </row>
     <row r="21">
-      <c r="A21" s="69"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
     </row>
     <row r="22">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
     </row>
     <row r="23">
-      <c r="A23" s="69"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
     </row>
     <row r="24">
-      <c r="A24" s="69"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="1">
